--- a/BackTest/2020-01-14 BackTest AMO.xlsx
+++ b/BackTest/2020-01-14 BackTest AMO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-6396841.216099998</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-5358744.225099998</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-3446758.116299996</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-3446758.116299996</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-2298476.214299996</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-3039921.521299996</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-3641700.650299997</v>
       </c>
       <c r="H21" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-2476467.224299997</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1082388.213299997</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-290088.3312999967</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2645982.471299997</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-3895973.521299996</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-3010440.253299996</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-3963779.620299996</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-5332431.344299996</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-3946828.096299997</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-3946828.096299997</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-2442564.174299996</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-3539991.501299996</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-2980591.184299996</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-2828027.461299996</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1837739.236799996</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-3045351.474799996</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1998778.721799996</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-3011448.425799996</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-3863078.643799996</v>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-2502902.682799996</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-2502902.682799996</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1168154.008799996</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-2274057.098799996</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-761317.4147999962</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>158118.9022000039</v>
       </c>
       <c r="H50" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>1382682.665200004</v>
       </c>
       <c r="H51" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>683616.1702000039</v>
       </c>
       <c r="H52" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>1772567.735200004</v>
       </c>
       <c r="H53" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>827704.1302000037</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>2298065.002200004</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>836179.8922000036</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>1696285.873200004</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>717519.2192000035</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-303626.2467999965</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-303626.2467999965</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1731608.306799997</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-3032453.930799996</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-2265581.335799997</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-3015502.405799997</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-2291008.622799996</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-812171.9887999962</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1875696.266799996</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-2812084.108799996</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-2079114.563799996</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-3074832.742799996</v>
       </c>
       <c r="H71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-3943414.485799996</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-3108735.791799996</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-3917987.197799996</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-3917987.197799996</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-3917987.197799996</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-2506956.662799996</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-3824753.811799997</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-3066356.979799997</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-3782374.999799997</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-2752753.771799996</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1299344.424799996</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-515520.3057999965</v>
       </c>
       <c r="H83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-515520.3057999965</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1858744.741799996</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-591802.1667999965</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-1392577.810799996</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-549423.3547999964</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-1951978.127799996</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-3447766.286799996</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-2536805.731799996</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1278338.918799996</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-2477475.394799996</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-3608805.771799996</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-4723184.623799996</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-3600330.009799996</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-4680805.812799997</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-6032506.011799997</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-4748611.911799997</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-6193545.496799997</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-7070603.001799997</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-5896893.812799997</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-4519766.326799996</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-3329105.612799997</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-2291008.621799997</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-3346057.136799997</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-2019784.224799997</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-2845987.155799997</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-1689229.491799996</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-1689229.491799996</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-2964647.828799997</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-4197687.353799997</v>
       </c>
       <c r="H112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-3422338.996799997</v>
       </c>
       <c r="H113" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-4426532.937799997</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-4596048.184799997</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-3413863.233799997</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-4562145.135799997</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-3994269.055799997</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-4701811.313799998</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-3536577.887799998</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-2142498.876799998</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-2934798.758799998</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-3011080.620799998</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-1761089.570799998</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-1761089.570799998</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-2714428.937799998</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-4083080.661799998</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-2697477.413799997</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-4218692.859799998</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-5722956.781799998</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-4625529.454799999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-3697617.374799998</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-5184929.771799998</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-6477299.633799998</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-5659572.464799998</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-6629863.356799998</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-5642620.940799998</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-6850233.178799998</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-5803660.425799998</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-6816330.129799997</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-5964699.911799997</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-7324875.872799997</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-6634285.139799997</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-5299536.465799997</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-6405439.555799996</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-4892699.871799996</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-5812136.188799996</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-4587572.425799996</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-3888505.930799996</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-4032593.890799996</v>
       </c>
       <c r="H154" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-5502954.762799996</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-4041069.652799996</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-3180963.671799995</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-4159730.325799996</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-3138584.859799996</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-1608893.650799996</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-3036875.710799996</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1736030.086799996</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-2502902.681799996</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1752981.611799996</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-2477475.394799996</v>
       </c>
       <c r="H165" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-998638.7607999961</v>
       </c>
       <c r="H166" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-2240154.048799996</v>
       </c>
       <c r="H167" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-1176629.770799996</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-2113017.612799997</v>
       </c>
       <c r="H169" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-1380048.067799997</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-1380048.067799997</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-509522.1240999966</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-1344200.818099997</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-2153452.224099996</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-716994.4010999964</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-2136500.699099996</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-3626492.776699996</v>
       </c>
       <c r="H177" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-2308695.627699996</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-3067092.459699996</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-3783110.479699996</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-4812731.707699996</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-3359322.360699996</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-2575498.241699996</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-3537313.370699996</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-2194088.934699996</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-927146.3596999964</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-924089.7073999965</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-1724865.351399996</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-2568019.807399997</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-3970574.580399997</v>
       </c>
       <c r="H190" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-2474786.421399997</v>
       </c>
       <c r="H191" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-2472824.350899997</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-3383784.905899997</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-2125318.092899997</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-926181.6168999968</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-2057511.993899997</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-943133.1418999969</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-2065987.755899997</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-3146463.558899997</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-3146463.558899997</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-1862569.458899997</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-3307503.043899997</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>5496587.123800004</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>4619529.618800004</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>4619529.618800004</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>4621600.251700004</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>3244472.765700004</v>
       </c>
       <c r="H207" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>3246479.937400003</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>2055819.223400004</v>
       </c>
       <c r="H209" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>3095868.861600004</v>
       </c>
       <c r="H210" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>2040820.346600004</v>
       </c>
       <c r="H211" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>2042840.112100004</v>
       </c>
       <c r="H212" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>716567.2001000037</v>
       </c>
       <c r="H213" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>718858.8207000038</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-107344.1102999962</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-105414.3645999962</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-1262172.028599996</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-2156181.058599996</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-880762.7215999963</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-2113802.246599996</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-2889150.603599996</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-3893344.544599996</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-2987953.927399997</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-4059953.967399997</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-2877769.016399997</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-4026050.918399997</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-4767496.225399997</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-3458174.838399997</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-2750632.580399997</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-1585399.154399997</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-191320.1433999971</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-983620.0253999971</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>156186.1136000028</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-1059901.887399997</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>4522632.071300003</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>3478155.593000003</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>3639195.079000003</v>
       </c>
       <c r="H254" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>4999371.040000003</v>
       </c>
       <c r="H255" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>4308780.307000003</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>2971017.668600003</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>1862100.614200003</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>3374840.298200003</v>
       </c>
       <c r="H259" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>2455403.981200003</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>2452390.016800003</v>
       </c>
       <c r="H261" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>3676953.779800003</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>3676953.779800003</v>
       </c>
       <c r="H263" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>3673505.236100004</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>7082466.926500004</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>7102531.783600003</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>6157668.178600004</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>3025722.196600004</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>3885828.177600004</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>2907061.523600004</v>
       </c>
       <c r="H271" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>1885916.057600004</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>3415607.266600004</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>4843589.326600004</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>6144434.950600004</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>5377562.355600004</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>6127483.425600004</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>5402989.642600005</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>6881826.276600005</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>6881826.276600005</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>5818301.998600005</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>6754689.840600005</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>7487659.385600005</v>
       </c>
       <c r="H283" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-6745081.183099995</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-10981460.8941</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-11902599.3417</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-11034017.59869999</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-12487426.9467</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-11169629.7977</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-11167233.7143</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-11925630.5463</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-11209612.5263</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-12239233.7543</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-13692643.1013</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-20431773.5856</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-21393588.7146</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-22736813.1506</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-21469870.5756</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-25130077.7978</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-24329302.1538</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-25700175.7109</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-24297620.9379</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-25793409.0969</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-26704369.6519</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-25445902.8389</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-26645039.3149</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-25513708.9379</v>
       </c>
       <c r="H311" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-24399330.0859</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11803,7 +11803,7 @@
         <v>-29260817.3642</v>
       </c>
       <c r="H346" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
       <c r="J346" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-30603861.5725</v>
       </c>
       <c r="H352" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>-39890169.08289999</v>
       </c>
       <c r="H362" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-37820576.97719999</v>
       </c>
       <c r="H367" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-38603385.98299999</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-39963561.94399999</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-39963561.94399999</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-40192407.52799999</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-38679667.84399999</v>
       </c>
       <c r="H377" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-39205165.11199999</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-40294116.67699999</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-40001886.77499999</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-41429868.83499999</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-42730714.45899999</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-42713762.93399999</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14278,10 +14278,14 @@
         <v>-46821335.03840002</v>
       </c>
       <c r="H421" t="n">
-        <v>0</v>
-      </c>
-      <c r="I421" t="inlineStr"/>
-      <c r="J421" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I421" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="J421" t="n">
+        <v>0.2516</v>
+      </c>
       <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
@@ -14311,11 +14315,19 @@
         <v>-47628162.51610002</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
-      </c>
-      <c r="I422" t="inlineStr"/>
-      <c r="J422" t="inlineStr"/>
-      <c r="K422" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I422" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K422" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14344,11 +14356,19 @@
         <v>-53375875.79680002</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
-      </c>
-      <c r="I423" t="inlineStr"/>
-      <c r="J423" t="inlineStr"/>
-      <c r="K423" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I423" t="n">
+        <v>0.2512</v>
+      </c>
+      <c r="J423" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K423" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14377,11 +14397,19 @@
         <v>-52374220.03034982</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
-      </c>
-      <c r="I424" t="inlineStr"/>
-      <c r="J424" t="inlineStr"/>
-      <c r="K424" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I424" t="n">
+        <v>0.2507</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K424" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14410,15 +14438,19 @@
         <v>-51958470.72750002</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I425" t="n">
         <v>0.2509</v>
       </c>
       <c r="J425" t="n">
-        <v>0.2509</v>
-      </c>
-      <c r="K425" t="inlineStr"/>
+        <v>0.2516</v>
+      </c>
+      <c r="K425" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14447,17 +14479,17 @@
         <v>-50615246.29150002</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I426" t="n">
         <v>0.251</v>
       </c>
       <c r="J426" t="n">
-        <v>0.2509</v>
+        <v>0.2516</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L426" t="n">
@@ -14488,17 +14520,17 @@
         <v>-49348303.71650002</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I427" t="n">
         <v>0.2517</v>
       </c>
       <c r="J427" t="n">
-        <v>0.2509</v>
+        <v>0.2516</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L427" t="n">
@@ -14529,15 +14561,19 @@
         <v>-48547528.07250002</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I428" t="n">
         <v>0.2538</v>
       </c>
       <c r="J428" t="n">
-        <v>0.2538</v>
-      </c>
-      <c r="K428" t="inlineStr"/>
+        <v>0.2516</v>
+      </c>
+      <c r="K428" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14570,11 +14606,11 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>0.2538</v>
+        <v>0.2516</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L429" t="n">
@@ -14609,11 +14645,11 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>0.2538</v>
+        <v>0.2516</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L430" t="n">
@@ -14647,8 +14683,14 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="inlineStr"/>
-      <c r="K431" t="inlineStr"/>
+      <c r="J431" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K431" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14680,8 +14722,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14713,8 +14761,14 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14746,8 +14800,14 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14779,8 +14839,14 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14812,8 +14878,14 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14845,8 +14917,14 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14878,8 +14956,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14908,11 +14992,19 @@
         <v>-48678298.5543502</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
-      </c>
-      <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I439" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="J439" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -14944,8 +15036,14 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -14977,8 +15075,14 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15010,8 +15114,14 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15043,8 +15153,14 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15076,8 +15192,14 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15109,8 +15231,14 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15142,8 +15270,14 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15175,8 +15309,14 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15208,8 +15348,14 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15241,8 +15387,14 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15274,8 +15426,14 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="inlineStr"/>
-      <c r="K450" t="inlineStr"/>
+      <c r="J450" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K450" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15307,8 +15465,14 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="inlineStr"/>
-      <c r="K451" t="inlineStr"/>
+      <c r="J451" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K451" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15340,8 +15504,14 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="inlineStr"/>
-      <c r="K452" t="inlineStr"/>
+      <c r="J452" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K452" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15373,8 +15543,14 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="inlineStr"/>
-      <c r="K453" t="inlineStr"/>
+      <c r="J453" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K453" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15406,8 +15582,14 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="J454" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15439,8 +15621,14 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="J455" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15472,8 +15660,14 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="J456" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15505,8 +15699,14 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="J457" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15538,8 +15738,14 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="J458" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15571,8 +15777,14 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="J459" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15604,8 +15816,14 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="J460" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15637,8 +15855,14 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="J461" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15670,8 +15894,14 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="J462" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15703,8 +15933,14 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="J463" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15736,8 +15972,14 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="J464" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -15769,8 +16011,14 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="J465" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -15802,8 +16050,14 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="J466" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -15835,8 +16089,14 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="J467" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -15868,8 +16128,14 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="J468" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -15901,8 +16167,14 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="J469" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -15934,8 +16206,14 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="J470" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -15967,8 +16245,14 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="J471" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16000,8 +16284,14 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="J472" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16033,8 +16323,14 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="J473" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16066,8 +16362,14 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="J474" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16099,8 +16401,14 @@
         <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="J475" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16132,8 +16440,14 @@
         <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="J476" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16165,8 +16479,14 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="J477" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16198,8 +16518,14 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="inlineStr"/>
-      <c r="K478" t="inlineStr"/>
+      <c r="J478" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K478" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16231,8 +16557,14 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="inlineStr"/>
-      <c r="K479" t="inlineStr"/>
+      <c r="J479" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K479" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16264,8 +16596,14 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="inlineStr"/>
-      <c r="K480" t="inlineStr"/>
+      <c r="J480" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K480" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16297,8 +16635,14 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="inlineStr"/>
-      <c r="K481" t="inlineStr"/>
+      <c r="J481" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K481" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16330,8 +16674,14 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="inlineStr"/>
-      <c r="K482" t="inlineStr"/>
+      <c r="J482" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K482" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16363,8 +16713,14 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="inlineStr"/>
-      <c r="K483" t="inlineStr"/>
+      <c r="J483" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K483" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16396,8 +16752,14 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="inlineStr"/>
-      <c r="K484" t="inlineStr"/>
+      <c r="J484" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K484" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16429,8 +16791,14 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="inlineStr"/>
-      <c r="K485" t="inlineStr"/>
+      <c r="J485" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K485" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16462,8 +16830,14 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="inlineStr"/>
-      <c r="K486" t="inlineStr"/>
+      <c r="J486" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K486" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16495,8 +16869,14 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="inlineStr"/>
-      <c r="K487" t="inlineStr"/>
+      <c r="J487" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K487" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16528,8 +16908,14 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="inlineStr"/>
-      <c r="K488" t="inlineStr"/>
+      <c r="J488" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K488" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16561,8 +16947,14 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="inlineStr"/>
-      <c r="K489" t="inlineStr"/>
+      <c r="J489" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K489" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16594,8 +16986,14 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="inlineStr"/>
-      <c r="K490" t="inlineStr"/>
+      <c r="J490" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K490" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -16627,8 +17025,14 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="inlineStr"/>
-      <c r="K491" t="inlineStr"/>
+      <c r="J491" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K491" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -16660,8 +17064,14 @@
         <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="inlineStr"/>
-      <c r="K492" t="inlineStr"/>
+      <c r="J492" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K492" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -16693,8 +17103,14 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="inlineStr"/>
-      <c r="K493" t="inlineStr"/>
+      <c r="J493" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K493" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -16726,8 +17142,14 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="inlineStr"/>
-      <c r="K494" t="inlineStr"/>
+      <c r="J494" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K494" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -16759,8 +17181,14 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="inlineStr"/>
-      <c r="K495" t="inlineStr"/>
+      <c r="J495" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K495" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -16792,8 +17220,14 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="inlineStr"/>
-      <c r="K496" t="inlineStr"/>
+      <c r="J496" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K496" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -16825,8 +17259,14 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="inlineStr"/>
-      <c r="K497" t="inlineStr"/>
+      <c r="J497" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K497" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -16858,8 +17298,14 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="inlineStr"/>
-      <c r="K498" t="inlineStr"/>
+      <c r="J498" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K498" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -16891,8 +17337,14 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="inlineStr"/>
-      <c r="K499" t="inlineStr"/>
+      <c r="J499" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K499" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -16924,8 +17376,14 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="inlineStr"/>
-      <c r="K500" t="inlineStr"/>
+      <c r="J500" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K500" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -16957,8 +17415,14 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="inlineStr"/>
-      <c r="K501" t="inlineStr"/>
+      <c r="J501" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K501" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -16990,8 +17454,14 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="inlineStr"/>
-      <c r="K502" t="inlineStr"/>
+      <c r="J502" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K502" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17023,8 +17493,14 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="inlineStr"/>
-      <c r="K503" t="inlineStr"/>
+      <c r="J503" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K503" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17056,8 +17532,14 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="inlineStr"/>
-      <c r="K504" t="inlineStr"/>
+      <c r="J504" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K504" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17089,8 +17571,14 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="inlineStr"/>
-      <c r="K505" t="inlineStr"/>
+      <c r="J505" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K505" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17122,8 +17610,14 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="inlineStr"/>
-      <c r="K506" t="inlineStr"/>
+      <c r="J506" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K506" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17155,8 +17649,14 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="inlineStr"/>
-      <c r="K507" t="inlineStr"/>
+      <c r="J507" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K507" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17188,8 +17688,14 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="inlineStr"/>
-      <c r="K508" t="inlineStr"/>
+      <c r="J508" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K508" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17221,8 +17727,14 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="inlineStr"/>
-      <c r="K509" t="inlineStr"/>
+      <c r="J509" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K509" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17254,8 +17766,14 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="inlineStr"/>
-      <c r="K510" t="inlineStr"/>
+      <c r="J510" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K510" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17287,8 +17805,14 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="inlineStr"/>
-      <c r="K511" t="inlineStr"/>
+      <c r="J511" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K511" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17320,8 +17844,14 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="inlineStr"/>
-      <c r="K512" t="inlineStr"/>
+      <c r="J512" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K512" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17353,8 +17883,14 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="inlineStr"/>
-      <c r="K513" t="inlineStr"/>
+      <c r="J513" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K513" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17386,8 +17922,14 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="inlineStr"/>
-      <c r="K514" t="inlineStr"/>
+      <c r="J514" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K514" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17419,8 +17961,14 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="inlineStr"/>
-      <c r="K515" t="inlineStr"/>
+      <c r="J515" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K515" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -17452,8 +18000,14 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="inlineStr"/>
-      <c r="K516" t="inlineStr"/>
+      <c r="J516" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K516" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -17485,8 +18039,14 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="inlineStr"/>
-      <c r="K517" t="inlineStr"/>
+      <c r="J517" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K517" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -17518,8 +18078,14 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="inlineStr"/>
-      <c r="K518" t="inlineStr"/>
+      <c r="J518" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K518" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -17551,8 +18117,14 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="inlineStr"/>
-      <c r="K519" t="inlineStr"/>
+      <c r="J519" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K519" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -17584,8 +18156,14 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="inlineStr"/>
-      <c r="K520" t="inlineStr"/>
+      <c r="J520" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K520" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -17617,8 +18195,14 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="inlineStr"/>
-      <c r="K521" t="inlineStr"/>
+      <c r="J521" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K521" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -17650,8 +18234,14 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="inlineStr"/>
-      <c r="K522" t="inlineStr"/>
+      <c r="J522" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K522" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -17683,8 +18273,14 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="inlineStr"/>
-      <c r="K523" t="inlineStr"/>
+      <c r="J523" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K523" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -17716,8 +18312,14 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="inlineStr"/>
-      <c r="K524" t="inlineStr"/>
+      <c r="J524" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K524" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -17749,8 +18351,14 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="inlineStr"/>
-      <c r="K525" t="inlineStr"/>
+      <c r="J525" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K525" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -17782,8 +18390,14 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="inlineStr"/>
-      <c r="K526" t="inlineStr"/>
+      <c r="J526" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K526" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -17815,8 +18429,14 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="inlineStr"/>
-      <c r="K527" t="inlineStr"/>
+      <c r="J527" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K527" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -17848,8 +18468,14 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="inlineStr"/>
-      <c r="K528" t="inlineStr"/>
+      <c r="J528" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K528" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -17881,8 +18507,14 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="inlineStr"/>
-      <c r="K529" t="inlineStr"/>
+      <c r="J529" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K529" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -17914,8 +18546,14 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="inlineStr"/>
-      <c r="K530" t="inlineStr"/>
+      <c r="J530" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K530" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -17947,8 +18585,14 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="inlineStr"/>
-      <c r="K531" t="inlineStr"/>
+      <c r="J531" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K531" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -17980,8 +18624,14 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="inlineStr"/>
-      <c r="K532" t="inlineStr"/>
+      <c r="J532" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K532" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18013,8 +18663,14 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="inlineStr"/>
-      <c r="K533" t="inlineStr"/>
+      <c r="J533" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K533" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18046,8 +18702,14 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="inlineStr"/>
-      <c r="K534" t="inlineStr"/>
+      <c r="J534" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K534" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18079,8 +18741,14 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="inlineStr"/>
-      <c r="K535" t="inlineStr"/>
+      <c r="J535" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K535" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18112,8 +18780,14 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="inlineStr"/>
-      <c r="K536" t="inlineStr"/>
+      <c r="J536" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K536" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18145,8 +18819,14 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="inlineStr"/>
-      <c r="K537" t="inlineStr"/>
+      <c r="J537" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K537" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18178,8 +18858,14 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="inlineStr"/>
-      <c r="K538" t="inlineStr"/>
+      <c r="J538" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K538" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18211,8 +18897,14 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="inlineStr"/>
-      <c r="K539" t="inlineStr"/>
+      <c r="J539" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K539" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18244,8 +18936,14 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="inlineStr"/>
-      <c r="K540" t="inlineStr"/>
+      <c r="J540" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K540" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18277,8 +18975,14 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="inlineStr"/>
-      <c r="K541" t="inlineStr"/>
+      <c r="J541" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K541" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -18310,8 +19014,14 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="inlineStr"/>
-      <c r="K542" t="inlineStr"/>
+      <c r="J542" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K542" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -18343,8 +19053,14 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="inlineStr"/>
-      <c r="K543" t="inlineStr"/>
+      <c r="J543" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K543" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -18376,8 +19092,14 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="inlineStr"/>
-      <c r="K544" t="inlineStr"/>
+      <c r="J544" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K544" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -18409,8 +19131,14 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
-      <c r="K545" t="inlineStr"/>
+      <c r="J545" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K545" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -18442,8 +19170,14 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+      <c r="J546" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18472,11 +19206,19 @@
         <v>-71989035.55295023</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="J547" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18505,11 +19247,19 @@
         <v>-73103414.40495023</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
-      <c r="K548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="J548" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K548" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -18538,11 +19288,19 @@
         <v>-71980559.79095024</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="J549" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18574,8 +19332,14 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+      <c r="J550" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18604,11 +19368,19 @@
         <v>-73061035.59395024</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
-      <c r="K551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="J551" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K551" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -18640,8 +19412,14 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+      <c r="J552" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18673,8 +19451,14 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+      <c r="J553" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -18706,8 +19490,14 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="inlineStr"/>
-      <c r="K554" t="inlineStr"/>
+      <c r="J554" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K554" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -18736,11 +19526,19 @@
         <v>-72925423.39495024</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
-      </c>
-      <c r="I555" t="inlineStr"/>
-      <c r="J555" t="inlineStr"/>
-      <c r="K555" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I555" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="J555" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K555" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -18772,8 +19570,14 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="inlineStr"/>
-      <c r="K556" t="inlineStr"/>
+      <c r="J556" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K556" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -18805,8 +19609,14 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
-      <c r="K557" t="inlineStr"/>
+      <c r="J557" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K557" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -18838,8 +19648,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -18871,8 +19687,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -18901,11 +19723,19 @@
         <v>-73878762.76095024</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
-      </c>
-      <c r="I560" t="inlineStr"/>
-      <c r="J560" t="inlineStr"/>
-      <c r="K560" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I560" t="n">
+        <v>0.251</v>
+      </c>
+      <c r="J560" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K560" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -18937,8 +19767,14 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="inlineStr"/>
-      <c r="K561" t="inlineStr"/>
+      <c r="J561" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K561" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -18970,8 +19806,14 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="inlineStr"/>
-      <c r="K562" t="inlineStr"/>
+      <c r="J562" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K562" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19003,8 +19845,14 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="inlineStr"/>
-      <c r="K563" t="inlineStr"/>
+      <c r="J563" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K563" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19036,8 +19884,14 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="inlineStr"/>
-      <c r="K564" t="inlineStr"/>
+      <c r="J564" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K564" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19069,8 +19923,14 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="inlineStr"/>
-      <c r="K565" t="inlineStr"/>
+      <c r="J565" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K565" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19099,11 +19959,19 @@
         <v>-73624489.88895024</v>
       </c>
       <c r="H566" t="n">
-        <v>0</v>
-      </c>
-      <c r="I566" t="inlineStr"/>
-      <c r="J566" t="inlineStr"/>
-      <c r="K566" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I566" t="n">
+        <v>0.2511</v>
+      </c>
+      <c r="J566" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K566" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -19135,8 +20003,14 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="inlineStr"/>
-      <c r="K567" t="inlineStr"/>
+      <c r="J567" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K567" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -19165,11 +20039,19 @@
         <v>-73726199.03695025</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
-      </c>
-      <c r="I568" t="inlineStr"/>
-      <c r="J568" t="inlineStr"/>
-      <c r="K568" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I568" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="J568" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K568" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -19198,15 +20080,19 @@
         <v>-74798199.07695025</v>
       </c>
       <c r="H569" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I569" t="n">
         <v>0.2528</v>
       </c>
       <c r="J569" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="K569" t="inlineStr"/>
+        <v>0.2516</v>
+      </c>
+      <c r="K569" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -19235,15 +20121,17 @@
         <v>-73616014.12595025</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
-      </c>
-      <c r="I570" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I570" t="n">
+        <v>0.2515</v>
+      </c>
       <c r="J570" t="n">
-        <v>0.2528</v>
+        <v>0.2516</v>
       </c>
       <c r="K570" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L570" t="n">
@@ -19274,15 +20162,17 @@
         <v>-72467732.22395025</v>
       </c>
       <c r="H571" t="n">
-        <v>0</v>
-      </c>
-      <c r="I571" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I571" t="n">
+        <v>0.2521</v>
+      </c>
       <c r="J571" t="n">
-        <v>0.2528</v>
+        <v>0.2516</v>
       </c>
       <c r="K571" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L571" t="n">
@@ -19313,11 +20203,19 @@
         <v>-73219177.53095025</v>
       </c>
       <c r="H572" t="n">
-        <v>0</v>
-      </c>
-      <c r="I572" t="inlineStr"/>
-      <c r="J572" t="inlineStr"/>
-      <c r="K572" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I572" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="J572" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K572" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -19346,11 +20244,19 @@
         <v>-71909856.14395025</v>
       </c>
       <c r="H573" t="n">
-        <v>0</v>
-      </c>
-      <c r="I573" t="inlineStr"/>
-      <c r="J573" t="inlineStr"/>
-      <c r="K573" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I573" t="n">
+        <v>0.2513</v>
+      </c>
+      <c r="J573" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K573" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -19379,11 +20285,19 @@
         <v>-72617398.40195026</v>
       </c>
       <c r="H574" t="n">
-        <v>0</v>
-      </c>
-      <c r="I574" t="inlineStr"/>
-      <c r="J574" t="inlineStr"/>
-      <c r="K574" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I574" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="J574" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K574" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -19412,11 +20326,19 @@
         <v>-71452164.97595026</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
-      </c>
-      <c r="I575" t="inlineStr"/>
-      <c r="J575" t="inlineStr"/>
-      <c r="K575" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I575" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="J575" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K575" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -19445,11 +20367,19 @@
         <v>-70058085.96495026</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
-      <c r="K576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="J576" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K576" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -19478,11 +20408,19 @@
         <v>-69265786.08295026</v>
       </c>
       <c r="H577" t="n">
-        <v>0</v>
-      </c>
-      <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I577" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="J577" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19511,11 +20449,19 @@
         <v>-70405592.22195026</v>
       </c>
       <c r="H578" t="n">
-        <v>0</v>
-      </c>
-      <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I578" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="J578" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -19544,11 +20490,19 @@
         <v>-69189504.22095026</v>
       </c>
       <c r="H579" t="n">
-        <v>0</v>
-      </c>
-      <c r="I579" t="inlineStr"/>
-      <c r="J579" t="inlineStr"/>
-      <c r="K579" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I579" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="J579" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -19577,11 +20531,19 @@
         <v>-70439495.27095026</v>
       </c>
       <c r="H580" t="n">
-        <v>0</v>
-      </c>
-      <c r="I580" t="inlineStr"/>
-      <c r="J580" t="inlineStr"/>
-      <c r="K580" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I580" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="J580" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -19610,11 +20572,19 @@
         <v>-69553962.00295025</v>
       </c>
       <c r="H581" t="n">
-        <v>0</v>
-      </c>
-      <c r="I581" t="inlineStr"/>
-      <c r="J581" t="inlineStr"/>
-      <c r="K581" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I581" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="J581" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K581" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -19646,8 +20616,14 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="inlineStr"/>
-      <c r="K582" t="inlineStr"/>
+      <c r="J582" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K582" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -19679,8 +20655,14 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="inlineStr"/>
-      <c r="K583" t="inlineStr"/>
+      <c r="J583" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K583" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -19712,8 +20694,14 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="inlineStr"/>
-      <c r="K584" t="inlineStr"/>
+      <c r="J584" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K584" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -19745,8 +20733,14 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="inlineStr"/>
-      <c r="K585" t="inlineStr"/>
+      <c r="J585" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K585" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -19778,8 +20772,14 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="inlineStr"/>
-      <c r="K586" t="inlineStr"/>
+      <c r="J586" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K586" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -19811,8 +20811,14 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="inlineStr"/>
-      <c r="K587" t="inlineStr"/>
+      <c r="J587" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K587" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -19844,8 +20850,14 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="inlineStr"/>
-      <c r="K588" t="inlineStr"/>
+      <c r="J588" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K588" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -19877,8 +20889,14 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="inlineStr"/>
-      <c r="K589" t="inlineStr"/>
+      <c r="J589" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K589" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -19910,8 +20928,14 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="inlineStr"/>
-      <c r="K590" t="inlineStr"/>
+      <c r="J590" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K590" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -19940,11 +20964,19 @@
         <v>-67384534.63695025</v>
       </c>
       <c r="H591" t="n">
-        <v>0</v>
-      </c>
-      <c r="I591" t="inlineStr"/>
-      <c r="J591" t="inlineStr"/>
-      <c r="K591" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I591" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="J591" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K591" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -19976,8 +21008,14 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="inlineStr"/>
-      <c r="K592" t="inlineStr"/>
+      <c r="J592" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K592" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -20009,8 +21047,14 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="inlineStr"/>
-      <c r="K593" t="inlineStr"/>
+      <c r="J593" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K593" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -20039,11 +21083,19 @@
         <v>-66159970.87495027</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
-      <c r="K594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="J594" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K594" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -20075,8 +21127,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20108,8 +21166,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -20141,8 +21205,14 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="inlineStr"/>
-      <c r="K597" t="inlineStr"/>
+      <c r="J597" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K597" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -20174,8 +21244,14 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="inlineStr"/>
-      <c r="K598" t="inlineStr"/>
+      <c r="J598" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K598" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -20207,8 +21283,14 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="inlineStr"/>
-      <c r="K599" t="inlineStr"/>
+      <c r="J599" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K599" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -20240,8 +21322,14 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="inlineStr"/>
-      <c r="K600" t="inlineStr"/>
+      <c r="J600" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K600" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -20273,8 +21361,14 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="inlineStr"/>
-      <c r="K601" t="inlineStr"/>
+      <c r="J601" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K601" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -20306,8 +21400,14 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="inlineStr"/>
-      <c r="K602" t="inlineStr"/>
+      <c r="J602" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K602" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -20339,8 +21439,14 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="inlineStr"/>
-      <c r="K603" t="inlineStr"/>
+      <c r="J603" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K603" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -20372,8 +21478,14 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="inlineStr"/>
-      <c r="K604" t="inlineStr"/>
+      <c r="J604" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K604" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -20405,8 +21517,14 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="inlineStr"/>
-      <c r="K605" t="inlineStr"/>
+      <c r="J605" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K605" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -20438,8 +21556,14 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="inlineStr"/>
-      <c r="K606" t="inlineStr"/>
+      <c r="J606" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K606" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -20471,8 +21595,14 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="inlineStr"/>
-      <c r="K607" t="inlineStr"/>
+      <c r="J607" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K607" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -20504,8 +21634,14 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="inlineStr"/>
-      <c r="K608" t="inlineStr"/>
+      <c r="J608" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K608" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -20537,8 +21673,14 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="inlineStr"/>
-      <c r="K609" t="inlineStr"/>
+      <c r="J609" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K609" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -20570,8 +21712,14 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="inlineStr"/>
-      <c r="K610" t="inlineStr"/>
+      <c r="J610" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K610" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -20603,8 +21751,14 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="inlineStr"/>
-      <c r="K611" t="inlineStr"/>
+      <c r="J611" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K611" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -20636,8 +21790,14 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="inlineStr"/>
-      <c r="K612" t="inlineStr"/>
+      <c r="J612" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K612" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -20669,8 +21829,14 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="inlineStr"/>
-      <c r="K613" t="inlineStr"/>
+      <c r="J613" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K613" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -20702,8 +21868,14 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="inlineStr"/>
-      <c r="K614" t="inlineStr"/>
+      <c r="J614" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K614" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -20735,8 +21907,14 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="inlineStr"/>
-      <c r="K615" t="inlineStr"/>
+      <c r="J615" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K615" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -20768,8 +21946,14 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="inlineStr"/>
-      <c r="K616" t="inlineStr"/>
+      <c r="J616" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K616" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -20801,8 +21985,14 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="inlineStr"/>
-      <c r="K617" t="inlineStr"/>
+      <c r="J617" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K617" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -20834,8 +22024,14 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="inlineStr"/>
-      <c r="K618" t="inlineStr"/>
+      <c r="J618" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K618" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -20867,8 +22063,14 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="inlineStr"/>
-      <c r="K619" t="inlineStr"/>
+      <c r="J619" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K619" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -20900,8 +22102,14 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="inlineStr"/>
-      <c r="K620" t="inlineStr"/>
+      <c r="J620" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K620" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -20933,8 +22141,14 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="inlineStr"/>
-      <c r="K621" t="inlineStr"/>
+      <c r="J621" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K621" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -20966,8 +22180,14 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="inlineStr"/>
-      <c r="K622" t="inlineStr"/>
+      <c r="J622" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K622" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -20999,8 +22219,14 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="inlineStr"/>
-      <c r="K623" t="inlineStr"/>
+      <c r="J623" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K623" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -21032,8 +22258,14 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="inlineStr"/>
-      <c r="K624" t="inlineStr"/>
+      <c r="J624" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K624" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -21065,8 +22297,14 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="inlineStr"/>
-      <c r="K625" t="inlineStr"/>
+      <c r="J625" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K625" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -21098,8 +22336,14 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="inlineStr"/>
-      <c r="K626" t="inlineStr"/>
+      <c r="J626" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K626" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -21131,8 +22375,14 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="inlineStr"/>
-      <c r="K627" t="inlineStr"/>
+      <c r="J627" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K627" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -21164,8 +22414,14 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="inlineStr"/>
-      <c r="K628" t="inlineStr"/>
+      <c r="J628" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K628" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -21197,8 +22453,14 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="inlineStr"/>
-      <c r="K629" t="inlineStr"/>
+      <c r="J629" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K629" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -21230,8 +22492,14 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="inlineStr"/>
-      <c r="K630" t="inlineStr"/>
+      <c r="J630" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K630" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -21263,8 +22531,14 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="inlineStr"/>
-      <c r="K631" t="inlineStr"/>
+      <c r="J631" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K631" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -21296,8 +22570,14 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="inlineStr"/>
-      <c r="K632" t="inlineStr"/>
+      <c r="J632" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K632" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -21329,8 +22609,14 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="inlineStr"/>
-      <c r="K633" t="inlineStr"/>
+      <c r="J633" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K633" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -21362,8 +22648,14 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="inlineStr"/>
-      <c r="K634" t="inlineStr"/>
+      <c r="J634" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K634" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -21395,8 +22687,14 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="inlineStr"/>
-      <c r="K635" t="inlineStr"/>
+      <c r="J635" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K635" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -21428,8 +22726,14 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="inlineStr"/>
-      <c r="K636" t="inlineStr"/>
+      <c r="J636" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K636" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -21461,8 +22765,14 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="inlineStr"/>
-      <c r="K637" t="inlineStr"/>
+      <c r="J637" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K637" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -21494,8 +22804,14 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="inlineStr"/>
-      <c r="K638" t="inlineStr"/>
+      <c r="J638" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K638" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -21527,8 +22843,14 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="inlineStr"/>
-      <c r="K639" t="inlineStr"/>
+      <c r="J639" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K639" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -21560,8 +22882,14 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="inlineStr"/>
-      <c r="K640" t="inlineStr"/>
+      <c r="J640" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K640" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -21590,15 +22918,17 @@
         <v>-68092641.53485028</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
-      </c>
-      <c r="I641" t="n">
-        <v>0.253</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I641" t="inlineStr"/>
       <c r="J641" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="K641" t="inlineStr"/>
+        <v>0.2516</v>
+      </c>
+      <c r="K641" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -21631,11 +22961,11 @@
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="n">
-        <v>0.253</v>
+        <v>0.2516</v>
       </c>
       <c r="K642" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L642" t="n">
@@ -21670,11 +23000,11 @@
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="n">
-        <v>0.253</v>
+        <v>0.2516</v>
       </c>
       <c r="K643" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L643" t="n">
@@ -21708,8 +23038,14 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="inlineStr"/>
-      <c r="K644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K644" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -21741,8 +23077,14 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="inlineStr"/>
-      <c r="K645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K645" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -21774,8 +23116,14 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="inlineStr"/>
-      <c r="K646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K646" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -21804,15 +23152,17 @@
         <v>-69858869.82175027</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
-      </c>
-      <c r="I647" t="n">
-        <v>0.2517</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I647" t="inlineStr"/>
       <c r="J647" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="K647" t="inlineStr"/>
+        <v>0.2516</v>
+      </c>
+      <c r="K647" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -21845,11 +23195,11 @@
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="n">
-        <v>0.2517</v>
+        <v>0.2516</v>
       </c>
       <c r="K648" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L648" t="n">
@@ -21880,17 +23230,15 @@
         <v>-68600403.00875027</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
-      </c>
-      <c r="I649" t="n">
-        <v>0.2519</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I649" t="inlineStr"/>
       <c r="J649" t="n">
-        <v>0.2517</v>
+        <v>0.2516</v>
       </c>
       <c r="K649" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L649" t="n">
@@ -21921,15 +23269,17 @@
         <v>-68600403.00875027</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
-      </c>
-      <c r="I650" t="n">
-        <v>0.2519</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I650" t="inlineStr"/>
       <c r="J650" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="K650" t="inlineStr"/>
+        <v>0.2516</v>
+      </c>
+      <c r="K650" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -21958,17 +23308,15 @@
         <v>-68600403.00875027</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
-      </c>
-      <c r="I651" t="n">
-        <v>0.2519</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I651" t="inlineStr"/>
       <c r="J651" t="n">
-        <v>0.2519</v>
+        <v>0.2516</v>
       </c>
       <c r="K651" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L651" t="n">
@@ -21999,17 +23347,15 @@
         <v>-68600403.00875027</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
-      </c>
-      <c r="I652" t="n">
-        <v>0.2519</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I652" t="inlineStr"/>
       <c r="J652" t="n">
-        <v>0.2519</v>
+        <v>0.2516</v>
       </c>
       <c r="K652" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L652" t="n">
@@ -22040,15 +23386,17 @@
         <v>-69680878.81175028</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
-      </c>
-      <c r="I653" t="n">
-        <v>0.2519</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I653" t="inlineStr"/>
       <c r="J653" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="K653" t="inlineStr"/>
+        <v>0.2516</v>
+      </c>
+      <c r="K653" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -22077,17 +23425,15 @@
         <v>-68329178.61275028</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
-      </c>
-      <c r="I654" t="n">
-        <v>0.2518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I654" t="inlineStr"/>
       <c r="J654" t="n">
-        <v>0.2519</v>
+        <v>0.2516</v>
       </c>
       <c r="K654" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L654" t="n">
@@ -22118,17 +23464,15 @@
         <v>-67045284.51275028</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
-      </c>
-      <c r="I655" t="n">
-        <v>0.2523</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I655" t="inlineStr"/>
       <c r="J655" t="n">
-        <v>0.2519</v>
+        <v>0.2516</v>
       </c>
       <c r="K655" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L655" t="n">
@@ -22159,15 +23503,17 @@
         <v>-68490218.09775028</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
-      </c>
-      <c r="I656" t="n">
-        <v>0.2526</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I656" t="inlineStr"/>
       <c r="J656" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="K656" t="inlineStr"/>
+        <v>0.2516</v>
+      </c>
+      <c r="K656" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -22196,17 +23542,15 @@
         <v>-68490218.09775028</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
-      </c>
-      <c r="I657" t="n">
-        <v>0.2518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I657" t="inlineStr"/>
       <c r="J657" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K657" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L657" t="n">
@@ -22237,17 +23581,15 @@
         <v>-68490218.09775028</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
-      </c>
-      <c r="I658" t="n">
-        <v>0.2518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I658" t="inlineStr"/>
       <c r="J658" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K658" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L658" t="n">
@@ -22278,17 +23620,15 @@
         <v>-68490218.09775028</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
-      </c>
-      <c r="I659" t="n">
-        <v>0.2518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I659" t="inlineStr"/>
       <c r="J659" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K659" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L659" t="n">
@@ -22319,13 +23659,11 @@
         <v>-68490218.09775028</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
-      </c>
-      <c r="I660" t="n">
-        <v>0.2518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I660" t="inlineStr"/>
       <c r="J660" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K660" t="inlineStr">
         <is>
@@ -22360,13 +23698,11 @@
         <v>-68490218.09775028</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
-      </c>
-      <c r="I661" t="n">
-        <v>0.2518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
       <c r="J661" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K661" t="inlineStr">
         <is>
@@ -22401,13 +23737,11 @@
         <v>-68490218.09775028</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
-      </c>
-      <c r="I662" t="n">
-        <v>0.2518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
       <c r="J662" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
@@ -22442,13 +23776,11 @@
         <v>-67161945.18575028</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
-      </c>
-      <c r="I663" t="n">
-        <v>0.2518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I663" t="inlineStr"/>
       <c r="J663" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
@@ -22483,13 +23815,11 @@
         <v>-67988148.11675027</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
-      </c>
-      <c r="I664" t="n">
-        <v>0.2524</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I664" t="inlineStr"/>
       <c r="J664" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K664" t="inlineStr">
         <is>
@@ -22524,13 +23854,11 @@
         <v>-66831390.45275027</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
-      </c>
-      <c r="I665" t="n">
-        <v>0.2521</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I665" t="inlineStr"/>
       <c r="J665" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K665" t="inlineStr">
         <is>
@@ -22565,13 +23893,11 @@
         <v>-67725399.48275027</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
-      </c>
-      <c r="I666" t="n">
-        <v>0.2529</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I666" t="inlineStr"/>
       <c r="J666" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K666" t="inlineStr">
         <is>
@@ -22606,13 +23932,11 @@
         <v>-69000817.81975026</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
-      </c>
-      <c r="I667" t="n">
-        <v>0.2528</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I667" t="inlineStr"/>
       <c r="J667" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K667" t="inlineStr">
         <is>
@@ -22647,13 +23971,11 @@
         <v>-70233857.34475027</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
-      </c>
-      <c r="I668" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I668" t="inlineStr"/>
       <c r="J668" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K668" t="inlineStr">
         <is>
@@ -22688,13 +24010,11 @@
         <v>-71009205.70175026</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
-      </c>
-      <c r="I669" t="n">
-        <v>0.2522</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I669" t="inlineStr"/>
       <c r="J669" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K669" t="inlineStr">
         <is>
@@ -22733,7 +24053,7 @@
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K670" t="inlineStr">
         <is>
@@ -22772,7 +24092,7 @@
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K671" t="inlineStr">
         <is>
@@ -22811,7 +24131,7 @@
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K672" t="inlineStr">
         <is>
@@ -22846,13 +24166,11 @@
         <v>-70284711.91875027</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
-      </c>
-      <c r="I673" t="n">
-        <v>0.2527</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I673" t="inlineStr"/>
       <c r="J673" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K673" t="inlineStr">
         <is>
@@ -22887,13 +24205,11 @@
         <v>-70284711.91875027</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
-      </c>
-      <c r="I674" t="n">
-        <v>0.2519</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I674" t="inlineStr"/>
       <c r="J674" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K674" t="inlineStr">
         <is>
@@ -22932,7 +24248,7 @@
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K675" t="inlineStr">
         <is>
@@ -22967,13 +24283,13 @@
         <v>-69541044.61175027</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I676" t="n">
         <v>0.252</v>
       </c>
       <c r="J676" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K676" t="inlineStr">
         <is>
@@ -23008,13 +24324,11 @@
         <v>-70850365.99875027</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
-      </c>
-      <c r="I677" t="n">
-        <v>0.2528</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I677" t="inlineStr"/>
       <c r="J677" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K677" t="inlineStr">
         <is>
@@ -23049,13 +24363,11 @@
         <v>-70142823.74075027</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
-      </c>
-      <c r="I678" t="n">
-        <v>0.2521</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I678" t="inlineStr"/>
       <c r="J678" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K678" t="inlineStr">
         <is>
@@ -23090,13 +24402,11 @@
         <v>-82905848.83115026</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
-      </c>
-      <c r="I679" t="n">
-        <v>0.2523</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I679" t="inlineStr"/>
       <c r="J679" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K679" t="inlineStr">
         <is>
@@ -23131,13 +24441,11 @@
         <v>-81681285.06815027</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
-      </c>
-      <c r="I680" t="n">
-        <v>0.252</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I680" t="inlineStr"/>
       <c r="J680" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K680" t="inlineStr">
         <is>
@@ -23172,13 +24480,11 @@
         <v>-80253303.00815026</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
-      </c>
-      <c r="I681" t="n">
-        <v>0.2521</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I681" t="inlineStr"/>
       <c r="J681" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K681" t="inlineStr">
         <is>
@@ -23217,7 +24523,7 @@
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K682" t="inlineStr">
         <is>
@@ -23256,7 +24562,7 @@
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K683" t="inlineStr">
         <is>
@@ -23295,7 +24601,7 @@
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K684" t="inlineStr">
         <is>
@@ -23334,7 +24640,7 @@
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K685" t="inlineStr">
         <is>
@@ -23373,7 +24679,7 @@
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K686" t="inlineStr">
         <is>
@@ -23408,11 +24714,13 @@
         <v>-80576245.50315025</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
-      </c>
-      <c r="I687" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I687" t="n">
+        <v>0.2526</v>
+      </c>
       <c r="J687" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K687" t="inlineStr">
         <is>
@@ -23447,11 +24755,13 @@
         <v>-81326166.57315025</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
-      </c>
-      <c r="I688" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I688" t="n">
+        <v>0.2531</v>
+      </c>
       <c r="J688" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K688" t="inlineStr">
         <is>
@@ -23486,11 +24796,13 @@
         <v>-81316659.06985025</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
-      </c>
-      <c r="I689" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I689" t="n">
+        <v>0.2519</v>
+      </c>
       <c r="J689" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K689" t="inlineStr">
         <is>
@@ -23525,13 +24837,13 @@
         <v>-82558174.35785025</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I690" t="n">
         <v>0.2532</v>
       </c>
       <c r="J690" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K690" t="inlineStr">
         <is>
@@ -23566,11 +24878,13 @@
         <v>-83494562.19985025</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
-      </c>
-      <c r="I691" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I691" t="n">
+        <v>0.2531</v>
+      </c>
       <c r="J691" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K691" t="inlineStr">
         <is>
@@ -23605,13 +24919,13 @@
         <v>-82439513.68485025</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I692" t="n">
         <v>0.2525</v>
       </c>
       <c r="J692" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K692" t="inlineStr">
         <is>
@@ -23646,11 +24960,13 @@
         <v>-83460659.15085025</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
-      </c>
-      <c r="I693" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I693" t="n">
+        <v>0.253</v>
+      </c>
       <c r="J693" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K693" t="inlineStr">
         <is>
@@ -23689,7 +25005,7 @@
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K694" t="inlineStr">
         <is>
@@ -23728,7 +25044,7 @@
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K695" t="inlineStr">
         <is>
@@ -23763,13 +25079,13 @@
         <v>-84125822.59585024</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I696" t="n">
         <v>0.2522</v>
       </c>
       <c r="J696" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K696" t="inlineStr">
         <is>
@@ -23804,13 +25120,13 @@
         <v>-84125822.59585024</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I697" t="n">
         <v>0.2521</v>
       </c>
       <c r="J697" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K697" t="inlineStr">
         <is>
@@ -23845,13 +25161,13 @@
         <v>-84125822.59585024</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I698" t="n">
         <v>0.2521</v>
       </c>
       <c r="J698" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K698" t="inlineStr">
         <is>
@@ -23886,11 +25202,13 @@
         <v>-84125822.59585024</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>0.2521</v>
+      </c>
       <c r="J699" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K699" t="inlineStr">
         <is>
@@ -23925,11 +25243,13 @@
         <v>-84125822.59585024</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>0.2521</v>
+      </c>
       <c r="J700" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K700" t="inlineStr">
         <is>
@@ -23964,11 +25284,13 @@
         <v>-82915988.35785024</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>0.2521</v>
+      </c>
       <c r="J701" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K701" t="inlineStr">
         <is>
@@ -24003,11 +25325,13 @@
         <v>-83945609.58585024</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>0.2531</v>
+      </c>
       <c r="J702" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K702" t="inlineStr">
         <is>
@@ -24042,11 +25366,13 @@
         <v>-84661627.60585023</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>0.253</v>
+      </c>
       <c r="J703" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K703" t="inlineStr">
         <is>
@@ -24081,11 +25407,13 @@
         <v>-83326878.93185024</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>0.2524</v>
+      </c>
       <c r="J704" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K704" t="inlineStr">
         <is>
@@ -24124,7 +25452,7 @@
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K705" t="inlineStr">
         <is>
@@ -24163,7 +25491,7 @@
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K706" t="inlineStr">
         <is>
@@ -24198,11 +25526,13 @@
         <v>-82568482.10085022</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>0.253</v>
+      </c>
       <c r="J707" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K707" t="inlineStr">
         <is>
@@ -24237,11 +25567,13 @@
         <v>-83530297.22985022</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>0.2522</v>
+      </c>
       <c r="J708" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K708" t="inlineStr">
         <is>
@@ -24276,11 +25608,13 @@
         <v>-83544248.22985022</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>0.2521</v>
+      </c>
       <c r="J709" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K709" t="inlineStr">
         <is>
@@ -24315,11 +25649,13 @@
         <v>-82217975.31785022</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>0.252</v>
+      </c>
       <c r="J710" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K710" t="inlineStr">
         <is>
@@ -24354,11 +25690,13 @@
         <v>-80804689.78285022</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>0.2521</v>
+      </c>
       <c r="J711" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K711" t="inlineStr">
         <is>
@@ -24393,11 +25731,13 @@
         <v>-81622416.95185022</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>0.2532</v>
+      </c>
       <c r="J712" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K712" t="inlineStr">
         <is>
@@ -24432,11 +25772,13 @@
         <v>-80787738.25785021</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>0.2526</v>
+      </c>
       <c r="J713" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K713" t="inlineStr">
         <is>
@@ -24471,11 +25813,13 @@
         <v>-81986874.73385021</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>0.2528</v>
+      </c>
       <c r="J714" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K714" t="inlineStr">
         <is>
@@ -24510,11 +25854,13 @@
         <v>-81093494.78565021</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>0.2522</v>
+      </c>
       <c r="J715" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K715" t="inlineStr">
         <is>
@@ -24549,11 +25895,13 @@
         <v>-81093494.78565021</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>0.2523</v>
+      </c>
       <c r="J716" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K716" t="inlineStr">
         <is>
@@ -24588,11 +25936,13 @@
         <v>-82614710.2316502</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>0.2523</v>
+      </c>
       <c r="J717" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K717" t="inlineStr">
         <is>
@@ -24627,11 +25977,13 @@
         <v>-81729176.9636502</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>0.2521</v>
+      </c>
       <c r="J718" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K718" t="inlineStr">
         <is>
@@ -24666,11 +26018,13 @@
         <v>-81729176.9636502</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>0.2524</v>
+      </c>
       <c r="J719" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K719" t="inlineStr">
         <is>
@@ -24709,7 +26063,7 @@
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K720" t="inlineStr">
         <is>
@@ -24748,7 +26102,7 @@
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K721" t="inlineStr">
         <is>
@@ -24787,7 +26141,7 @@
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K722" t="inlineStr">
         <is>
@@ -24826,7 +26180,7 @@
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K723" t="inlineStr">
         <is>
@@ -24861,11 +26215,13 @@
         <v>-84349377.1126502</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>0.2525</v>
+      </c>
       <c r="J724" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K724" t="inlineStr">
         <is>
@@ -24900,11 +26256,13 @@
         <v>-83268901.3096502</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>0.252</v>
+      </c>
       <c r="J725" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K725" t="inlineStr">
         <is>
@@ -24943,7 +26301,7 @@
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="n">
-        <v>0.2526</v>
+        <v>0.2516</v>
       </c>
       <c r="K726" t="inlineStr">
         <is>
@@ -24956,6 +26314,6 @@
       <c r="M726" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest AMO.xlsx
+++ b/BackTest/2020-01-14 BackTest AMO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>-6396841.216099998</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>-5358744.225099998</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-3446758.116299996</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-3446758.116299996</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>-2298476.214299996</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-3039921.521299996</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>-3641700.650299997</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>-2476467.224299997</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>-1082388.213299997</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-290088.3312999967</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2645982.471299997</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-3895973.521299996</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-3010440.253299996</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-3963779.620299996</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-5332431.344299996</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-3946828.096299997</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-3946828.096299997</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-2442564.174299996</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-3539991.501299996</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-2980591.184299996</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-2828027.461299996</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1837739.236799996</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-3045351.474799996</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1998778.721799996</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-3011448.425799996</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-3863078.643799996</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-2502902.682799996</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-2502902.682799996</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1168154.008799996</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-2274057.098799996</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-761317.4147999962</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>158118.9022000039</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>1382682.665200004</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>683616.1702000039</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>1772567.735200004</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>827704.1302000037</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>2298065.002200004</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>836179.8922000036</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>1696285.873200004</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>717519.2192000035</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-303626.2467999965</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-303626.2467999965</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1731608.306799997</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-3032453.930799996</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-2265581.335799997</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-3015502.405799997</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-2291008.622799996</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-812171.9887999962</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1875696.266799996</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-2812084.108799996</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-2079114.563799996</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-3074832.742799996</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-3943414.485799996</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-3108735.791799996</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-3917987.197799996</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-3917987.197799996</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-3917987.197799996</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-2506956.662799996</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-3824753.811799997</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-3066356.979799997</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-3782374.999799997</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-2752753.771799996</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1299344.424799996</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-515520.3057999965</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-515520.3057999965</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1858744.741799996</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-591802.1667999965</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-1392577.810799996</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-549423.3547999964</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-1951978.127799996</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-3447766.286799996</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-2536805.731799996</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1278338.918799996</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-2477475.394799996</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-3608805.771799996</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-4723184.623799996</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-3600330.009799996</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-4680805.812799997</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-6032506.011799997</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-4748611.911799997</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-6193545.496799997</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-7070603.001799997</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-5896893.812799997</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-4519766.326799996</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-3329105.612799997</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-2291008.621799997</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-3346057.136799997</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-2019784.224799997</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-2845987.155799997</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-1689229.491799996</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-1689229.491799996</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-2964647.828799997</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-4197687.353799997</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-3422338.996799997</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-4426532.937799997</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-4596048.184799997</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-3413863.233799997</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-4562145.135799997</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-3994269.055799997</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-4701811.313799998</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-3536577.887799998</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-2142498.876799998</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-3011080.620799998</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-1761089.570799998</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-1761089.570799998</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-2714428.937799998</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-4083080.661799998</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-2697477.413799997</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-4218692.859799998</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-5722956.781799998</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-4625529.454799999</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-3697617.374799998</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-5184929.771799998</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-6477299.633799998</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-5659572.464799998</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-6629863.356799998</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-5642620.940799998</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-6850233.178799998</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-5803660.425799998</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-6816330.129799997</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-5964699.911799997</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-7324875.872799997</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-6634285.139799997</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-5299536.465799997</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-6405439.555799996</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-4892699.871799996</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-5812136.188799996</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-4587572.425799996</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-3888505.930799996</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-5502954.762799996</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-3180963.671799995</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-4159730.325799996</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-3138584.859799996</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-1608893.650799996</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-3036875.710799996</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1736030.086799996</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-2502902.681799996</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1752981.611799996</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-2477475.394799996</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-998638.7607999961</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-2240154.048799996</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-1176629.770799996</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-2113017.612799997</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-1380048.067799997</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-1380048.067799997</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-509522.1240999966</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-1344200.818099997</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-2153452.224099996</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-716994.4010999964</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-2136500.699099996</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-3626492.776699996</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-2308695.627699996</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-3067092.459699996</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-3783110.479699996</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-4812731.707699996</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-3359322.360699996</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-2575498.241699996</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-3537313.370699996</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-2194088.934699996</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-927146.3596999964</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-924089.7073999965</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-1724865.351399996</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-2568019.807399997</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-3970574.580399997</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-2474786.421399997</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-2472824.350899997</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-3383784.905899997</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-2125318.092899997</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-926181.6168999968</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-2057511.993899997</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-943133.1418999969</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-2065987.755899997</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-3146463.558899997</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-3146463.558899997</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-1862569.458899997</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-3307503.043899997</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>5496587.123800004</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>4619529.618800004</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>4619529.618800004</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>4621600.251700004</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>3244472.765700004</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>3246479.937400003</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>2055819.223400004</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>3095868.861600004</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>2042840.112100004</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>716567.2001000037</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>718858.8207000038</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-107344.1102999962</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-105414.3645999962</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-1262172.028599996</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-2156181.058599996</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7612,7 +7612,7 @@
         <v>-880762.7215999963</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -7645,7 +7645,7 @@
         <v>-2113802.246599996</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -7678,7 +7678,7 @@
         <v>-2889150.603599996</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-3893344.544599996</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-2987953.927399997</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-4059953.967399997</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-2877769.016399997</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-4026050.918399997</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-4767496.225399997</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-3458174.838399997</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-2750632.580399997</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-1585399.154399997</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-191320.1433999971</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-983620.0253999971</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>156186.1136000028</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-1059901.887399997</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>4522632.071300003</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>3478155.593000003</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>3639195.079000003</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>4999371.040000003</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>4308780.307000003</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>2971017.668600003</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>1862100.614200003</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>3374840.298200003</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>2455403.981200003</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>2452390.016800003</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>3676953.779800003</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>3676953.779800003</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>3673505.236100004</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>7082466.926500004</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>7102531.783600003</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>6157668.178600004</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>3025722.196600004</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>3885828.177600004</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>2907061.523600004</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>1885916.057600004</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>3415607.266600004</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>4843589.326600004</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>6144434.950600004</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>5377562.355600004</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>6127483.425600004</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>5402989.642600005</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>6881826.276600005</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>6881826.276600005</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>5818301.998600005</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>6754689.840600005</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9724,7 +9724,7 @@
         <v>7487659.385600005</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-6745081.183099995</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-10981460.8941</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9823,7 +9823,7 @@
         <v>-11902599.3417</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-11034017.59869999</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-12487426.9467</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-11169629.7977</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-11167233.7143</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-11925630.5463</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-11209612.5263</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-12239233.7543</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-13692643.1013</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-20431773.5856</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-21393588.7146</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-22736813.1506</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-21469870.5756</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-25130077.7978</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-24329302.1538</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-25700175.7109</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-24297620.9379</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10516,7 +10516,7 @@
         <v>-25793409.0969</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10549,7 +10549,7 @@
         <v>-26704369.6519</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10582,7 +10582,7 @@
         <v>-25445902.8389</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -10615,7 +10615,7 @@
         <v>-26645039.3149</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -10648,7 +10648,7 @@
         <v>-25513708.9379</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -10681,7 +10681,7 @@
         <v>-24399330.0859</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-37751755.76499999</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-38603385.98299999</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-39963561.94399999</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-39963561.94399999</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-41298310.61799999</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-39959507.96299999</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-38980741.30899999</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-40001886.77499999</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-41429868.83499999</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-42730714.45899999</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14561,11 +14561,9 @@
         <v>-48547528.07250002</v>
       </c>
       <c r="H428" t="n">
-        <v>1</v>
-      </c>
-      <c r="I428" t="n">
-        <v>0.2538</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
         <v>0.2516</v>
       </c>
@@ -14992,11 +14990,9 @@
         <v>-48678298.5543502</v>
       </c>
       <c r="H439" t="n">
-        <v>1</v>
-      </c>
-      <c r="I439" t="n">
-        <v>0.2525</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
         <v>0.2516</v>
       </c>
@@ -16242,7 +16238,7 @@
         <v>-66227205.83265018</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
@@ -16250,11 +16246,11 @@
       </c>
       <c r="K471" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L471" t="n">
-        <v>1</v>
+        <v>1.007321144674086</v>
       </c>
       <c r="M471" t="inlineStr"/>
     </row>
@@ -16281,17 +16277,11 @@
         <v>-67019505.71465018</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16323,14 +16313,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16362,14 +16346,8 @@
         <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
-      <c r="J474" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16398,17 +16376,11 @@
         <v>-65845796.52665018</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
-      <c r="J475" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16437,17 +16409,11 @@
         <v>-64960263.25865018</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
-      <c r="J476" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16479,14 +16445,8 @@
         <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
-      <c r="J477" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
@@ -16518,14 +16478,8 @@
         <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
-      <c r="J478" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K478" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J478" t="inlineStr"/>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="n">
         <v>1</v>
       </c>
@@ -16557,14 +16511,8 @@
         <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
-      <c r="J479" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K479" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J479" t="inlineStr"/>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="n">
         <v>1</v>
       </c>
@@ -16596,14 +16544,8 @@
         <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
-      <c r="J480" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K480" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J480" t="inlineStr"/>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="n">
         <v>1</v>
       </c>
@@ -16635,14 +16577,8 @@
         <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
-      <c r="J481" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K481" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J481" t="inlineStr"/>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="n">
         <v>1</v>
       </c>
@@ -16674,14 +16610,8 @@
         <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
-      <c r="J482" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K482" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J482" t="inlineStr"/>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="n">
         <v>1</v>
       </c>
@@ -16713,14 +16643,8 @@
         <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
-      <c r="J483" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K483" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J483" t="inlineStr"/>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="n">
         <v>1</v>
       </c>
@@ -16752,14 +16676,8 @@
         <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
-      <c r="J484" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K484" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J484" t="inlineStr"/>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="n">
         <v>1</v>
       </c>
@@ -16791,14 +16709,8 @@
         <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
-      <c r="J485" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K485" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J485" t="inlineStr"/>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="n">
         <v>1</v>
       </c>
@@ -16830,14 +16742,8 @@
         <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
-      <c r="J486" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K486" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J486" t="inlineStr"/>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="n">
         <v>1</v>
       </c>
@@ -16869,14 +16775,8 @@
         <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
-      <c r="J487" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K487" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J487" t="inlineStr"/>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="n">
         <v>1</v>
       </c>
@@ -16908,14 +16808,8 @@
         <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
-      <c r="J488" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K488" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J488" t="inlineStr"/>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="n">
         <v>1</v>
       </c>
@@ -16947,14 +16841,8 @@
         <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
-      <c r="J489" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K489" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J489" t="inlineStr"/>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="n">
         <v>1</v>
       </c>
@@ -16986,14 +16874,8 @@
         <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
-      <c r="J490" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K490" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J490" t="inlineStr"/>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="n">
         <v>1</v>
       </c>
@@ -17025,14 +16907,8 @@
         <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
-      <c r="J491" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K491" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J491" t="inlineStr"/>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="n">
         <v>1</v>
       </c>
@@ -17061,17 +16937,11 @@
         <v>-62244856.16075019</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
-      <c r="J492" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K492" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J492" t="inlineStr"/>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="n">
         <v>1</v>
       </c>
@@ -17103,14 +16973,8 @@
         <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
-      <c r="J493" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K493" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J493" t="inlineStr"/>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="n">
         <v>1</v>
       </c>
@@ -17142,14 +17006,8 @@
         <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
-      <c r="J494" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K494" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J494" t="inlineStr"/>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="n">
         <v>1</v>
       </c>
@@ -17181,14 +17039,8 @@
         <v>0</v>
       </c>
       <c r="I495" t="inlineStr"/>
-      <c r="J495" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K495" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J495" t="inlineStr"/>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="n">
         <v>1</v>
       </c>
@@ -17220,14 +17072,8 @@
         <v>0</v>
       </c>
       <c r="I496" t="inlineStr"/>
-      <c r="J496" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K496" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J496" t="inlineStr"/>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="n">
         <v>1</v>
       </c>
@@ -17259,14 +17105,8 @@
         <v>0</v>
       </c>
       <c r="I497" t="inlineStr"/>
-      <c r="J497" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K497" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J497" t="inlineStr"/>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="n">
         <v>1</v>
       </c>
@@ -17298,14 +17138,8 @@
         <v>0</v>
       </c>
       <c r="I498" t="inlineStr"/>
-      <c r="J498" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K498" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J498" t="inlineStr"/>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="n">
         <v>1</v>
       </c>
@@ -17337,14 +17171,8 @@
         <v>0</v>
       </c>
       <c r="I499" t="inlineStr"/>
-      <c r="J499" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K499" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J499" t="inlineStr"/>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="n">
         <v>1</v>
       </c>
@@ -17376,14 +17204,8 @@
         <v>0</v>
       </c>
       <c r="I500" t="inlineStr"/>
-      <c r="J500" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K500" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J500" t="inlineStr"/>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="n">
         <v>1</v>
       </c>
@@ -17415,14 +17237,8 @@
         <v>0</v>
       </c>
       <c r="I501" t="inlineStr"/>
-      <c r="J501" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K501" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J501" t="inlineStr"/>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="n">
         <v>1</v>
       </c>
@@ -17454,14 +17270,8 @@
         <v>0</v>
       </c>
       <c r="I502" t="inlineStr"/>
-      <c r="J502" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K502" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J502" t="inlineStr"/>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="n">
         <v>1</v>
       </c>
@@ -17493,14 +17303,8 @@
         <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
-      <c r="J503" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K503" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J503" t="inlineStr"/>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="n">
         <v>1</v>
       </c>
@@ -17532,14 +17336,8 @@
         <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
-      <c r="J504" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K504" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J504" t="inlineStr"/>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="n">
         <v>1</v>
       </c>
@@ -17571,14 +17369,8 @@
         <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
-      <c r="J505" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K505" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J505" t="inlineStr"/>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="n">
         <v>1</v>
       </c>
@@ -17610,14 +17402,8 @@
         <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
-      <c r="J506" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K506" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J506" t="inlineStr"/>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="n">
         <v>1</v>
       </c>
@@ -17649,14 +17435,8 @@
         <v>0</v>
       </c>
       <c r="I507" t="inlineStr"/>
-      <c r="J507" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K507" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J507" t="inlineStr"/>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="n">
         <v>1</v>
       </c>
@@ -17688,14 +17468,8 @@
         <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
-      <c r="J508" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K508" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J508" t="inlineStr"/>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="n">
         <v>1</v>
       </c>
@@ -17727,14 +17501,8 @@
         <v>0</v>
       </c>
       <c r="I509" t="inlineStr"/>
-      <c r="J509" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K509" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J509" t="inlineStr"/>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="n">
         <v>1</v>
       </c>
@@ -17766,14 +17534,8 @@
         <v>0</v>
       </c>
       <c r="I510" t="inlineStr"/>
-      <c r="J510" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K510" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J510" t="inlineStr"/>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="n">
         <v>1</v>
       </c>
@@ -17805,14 +17567,8 @@
         <v>0</v>
       </c>
       <c r="I511" t="inlineStr"/>
-      <c r="J511" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K511" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J511" t="inlineStr"/>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="n">
         <v>1</v>
       </c>
@@ -17844,14 +17600,8 @@
         <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
-      <c r="J512" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K512" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J512" t="inlineStr"/>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="n">
         <v>1</v>
       </c>
@@ -17883,14 +17633,8 @@
         <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
-      <c r="J513" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K513" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J513" t="inlineStr"/>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="n">
         <v>1</v>
       </c>
@@ -17922,14 +17666,8 @@
         <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
-      <c r="J514" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K514" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J514" t="inlineStr"/>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="n">
         <v>1</v>
       </c>
@@ -17961,14 +17699,8 @@
         <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
-      <c r="J515" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K515" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J515" t="inlineStr"/>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="n">
         <v>1</v>
       </c>
@@ -18000,14 +17732,8 @@
         <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
-      <c r="J516" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K516" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J516" t="inlineStr"/>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="n">
         <v>1</v>
       </c>
@@ -18039,14 +17765,8 @@
         <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
-      <c r="J517" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K517" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J517" t="inlineStr"/>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="n">
         <v>1</v>
       </c>
@@ -18078,14 +17798,8 @@
         <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
-      <c r="J518" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K518" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J518" t="inlineStr"/>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="n">
         <v>1</v>
       </c>
@@ -18117,14 +17831,8 @@
         <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
-      <c r="J519" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K519" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J519" t="inlineStr"/>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="n">
         <v>1</v>
       </c>
@@ -18156,14 +17864,8 @@
         <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
-      <c r="J520" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K520" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J520" t="inlineStr"/>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="n">
         <v>1</v>
       </c>
@@ -18195,14 +17897,8 @@
         <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
-      <c r="J521" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K521" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J521" t="inlineStr"/>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="n">
         <v>1</v>
       </c>
@@ -18234,14 +17930,8 @@
         <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
-      <c r="J522" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K522" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J522" t="inlineStr"/>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="n">
         <v>1</v>
       </c>
@@ -18273,14 +17963,8 @@
         <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
-      <c r="J523" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K523" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J523" t="inlineStr"/>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="n">
         <v>1</v>
       </c>
@@ -18312,14 +17996,8 @@
         <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
-      <c r="J524" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K524" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J524" t="inlineStr"/>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="n">
         <v>1</v>
       </c>
@@ -18351,14 +18029,8 @@
         <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
-      <c r="J525" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K525" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J525" t="inlineStr"/>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="n">
         <v>1</v>
       </c>
@@ -18390,14 +18062,8 @@
         <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
-      <c r="J526" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K526" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J526" t="inlineStr"/>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="n">
         <v>1</v>
       </c>
@@ -18429,14 +18095,8 @@
         <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
-      <c r="J527" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K527" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J527" t="inlineStr"/>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="n">
         <v>1</v>
       </c>
@@ -18468,14 +18128,8 @@
         <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
-      <c r="J528" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K528" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J528" t="inlineStr"/>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="n">
         <v>1</v>
       </c>
@@ -18507,14 +18161,8 @@
         <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
-      <c r="J529" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K529" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J529" t="inlineStr"/>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="n">
         <v>1</v>
       </c>
@@ -18546,14 +18194,8 @@
         <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
-      <c r="J530" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K530" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J530" t="inlineStr"/>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="n">
         <v>1</v>
       </c>
@@ -18585,14 +18227,8 @@
         <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
-      <c r="J531" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K531" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J531" t="inlineStr"/>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="n">
         <v>1</v>
       </c>
@@ -18624,14 +18260,8 @@
         <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
-      <c r="J532" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K532" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J532" t="inlineStr"/>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="n">
         <v>1</v>
       </c>
@@ -18663,14 +18293,8 @@
         <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
-      <c r="J533" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K533" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J533" t="inlineStr"/>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="n">
         <v>1</v>
       </c>
@@ -18702,14 +18326,8 @@
         <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
-      <c r="J534" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K534" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J534" t="inlineStr"/>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="n">
         <v>1</v>
       </c>
@@ -18741,14 +18359,8 @@
         <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
-      <c r="J535" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K535" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J535" t="inlineStr"/>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="n">
         <v>1</v>
       </c>
@@ -18780,14 +18392,8 @@
         <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
-      <c r="J536" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K536" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J536" t="inlineStr"/>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="n">
         <v>1</v>
       </c>
@@ -18819,14 +18425,8 @@
         <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
-      <c r="J537" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K537" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J537" t="inlineStr"/>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="n">
         <v>1</v>
       </c>
@@ -18858,14 +18458,8 @@
         <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
-      <c r="J538" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K538" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J538" t="inlineStr"/>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="n">
         <v>1</v>
       </c>
@@ -18897,14 +18491,8 @@
         <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
-      <c r="J539" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K539" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J539" t="inlineStr"/>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="n">
         <v>1</v>
       </c>
@@ -18936,14 +18524,8 @@
         <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
-      <c r="J540" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K540" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J540" t="inlineStr"/>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="n">
         <v>1</v>
       </c>
@@ -18975,14 +18557,8 @@
         <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
-      <c r="J541" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K541" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J541" t="inlineStr"/>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="n">
         <v>1</v>
       </c>
@@ -19014,14 +18590,8 @@
         <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
-      <c r="J542" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K542" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J542" t="inlineStr"/>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="n">
         <v>1</v>
       </c>
@@ -19053,14 +18623,8 @@
         <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
-      <c r="J543" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K543" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J543" t="inlineStr"/>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="n">
         <v>1</v>
       </c>
@@ -19092,14 +18656,8 @@
         <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
-      <c r="J544" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K544" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J544" t="inlineStr"/>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="n">
         <v>1</v>
       </c>
@@ -19131,14 +18689,8 @@
         <v>0</v>
       </c>
       <c r="I545" t="inlineStr"/>
-      <c r="J545" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K545" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J545" t="inlineStr"/>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
       </c>
@@ -19170,14 +18722,8 @@
         <v>0</v>
       </c>
       <c r="I546" t="inlineStr"/>
-      <c r="J546" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K546" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J546" t="inlineStr"/>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -19206,19 +18752,11 @@
         <v>-71989035.55295023</v>
       </c>
       <c r="H547" t="n">
-        <v>1</v>
-      </c>
-      <c r="I547" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="J547" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K547" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I547" t="inlineStr"/>
+      <c r="J547" t="inlineStr"/>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -19247,19 +18785,11 @@
         <v>-73103414.40495023</v>
       </c>
       <c r="H548" t="n">
-        <v>1</v>
-      </c>
-      <c r="I548" t="n">
-        <v>0.2529</v>
-      </c>
-      <c r="J548" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K548" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I548" t="inlineStr"/>
+      <c r="J548" t="inlineStr"/>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
       </c>
@@ -19288,19 +18818,11 @@
         <v>-71980559.79095024</v>
       </c>
       <c r="H549" t="n">
-        <v>1</v>
-      </c>
-      <c r="I549" t="n">
-        <v>0.2527</v>
-      </c>
-      <c r="J549" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K549" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I549" t="inlineStr"/>
+      <c r="J549" t="inlineStr"/>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -19332,14 +18854,8 @@
         <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
-      <c r="J550" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K550" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J550" t="inlineStr"/>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -19368,19 +18884,11 @@
         <v>-73061035.59395024</v>
       </c>
       <c r="H551" t="n">
-        <v>1</v>
-      </c>
-      <c r="I551" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J551" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K551" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I551" t="inlineStr"/>
+      <c r="J551" t="inlineStr"/>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
       </c>
@@ -19412,14 +18920,8 @@
         <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
-      <c r="J552" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K552" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J552" t="inlineStr"/>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -19451,14 +18953,8 @@
         <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
-      <c r="J553" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K553" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J553" t="inlineStr"/>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19490,14 +18986,8 @@
         <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
-      <c r="J554" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K554" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J554" t="inlineStr"/>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="n">
         <v>1</v>
       </c>
@@ -19526,19 +19016,11 @@
         <v>-72925423.39495024</v>
       </c>
       <c r="H555" t="n">
-        <v>1</v>
-      </c>
-      <c r="I555" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="J555" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K555" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I555" t="inlineStr"/>
+      <c r="J555" t="inlineStr"/>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="n">
         <v>1</v>
       </c>
@@ -19570,14 +19052,8 @@
         <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
-      <c r="J556" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K556" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J556" t="inlineStr"/>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="n">
         <v>1</v>
       </c>
@@ -19609,14 +19085,8 @@
         <v>0</v>
       </c>
       <c r="I557" t="inlineStr"/>
-      <c r="J557" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K557" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J557" t="inlineStr"/>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
       </c>
@@ -19648,14 +19118,8 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K558" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J558" t="inlineStr"/>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19687,14 +19151,8 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K559" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J559" t="inlineStr"/>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19723,19 +19181,11 @@
         <v>-73878762.76095024</v>
       </c>
       <c r="H560" t="n">
-        <v>1</v>
-      </c>
-      <c r="I560" t="n">
-        <v>0.251</v>
-      </c>
-      <c r="J560" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K560" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I560" t="inlineStr"/>
+      <c r="J560" t="inlineStr"/>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="n">
         <v>1</v>
       </c>
@@ -19767,14 +19217,8 @@
         <v>0</v>
       </c>
       <c r="I561" t="inlineStr"/>
-      <c r="J561" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K561" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J561" t="inlineStr"/>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="n">
         <v>1</v>
       </c>
@@ -19806,14 +19250,8 @@
         <v>0</v>
       </c>
       <c r="I562" t="inlineStr"/>
-      <c r="J562" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K562" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J562" t="inlineStr"/>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="n">
         <v>1</v>
       </c>
@@ -19845,14 +19283,8 @@
         <v>0</v>
       </c>
       <c r="I563" t="inlineStr"/>
-      <c r="J563" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K563" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J563" t="inlineStr"/>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="n">
         <v>1</v>
       </c>
@@ -19884,14 +19316,8 @@
         <v>0</v>
       </c>
       <c r="I564" t="inlineStr"/>
-      <c r="J564" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K564" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J564" t="inlineStr"/>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="n">
         <v>1</v>
       </c>
@@ -19923,14 +19349,8 @@
         <v>0</v>
       </c>
       <c r="I565" t="inlineStr"/>
-      <c r="J565" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K565" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J565" t="inlineStr"/>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="n">
         <v>1</v>
       </c>
@@ -19959,19 +19379,11 @@
         <v>-73624489.88895024</v>
       </c>
       <c r="H566" t="n">
-        <v>1</v>
-      </c>
-      <c r="I566" t="n">
-        <v>0.2511</v>
-      </c>
-      <c r="J566" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K566" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I566" t="inlineStr"/>
+      <c r="J566" t="inlineStr"/>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="n">
         <v>1</v>
       </c>
@@ -20003,14 +19415,8 @@
         <v>0</v>
       </c>
       <c r="I567" t="inlineStr"/>
-      <c r="J567" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K567" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J567" t="inlineStr"/>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="n">
         <v>1</v>
       </c>
@@ -20039,19 +19445,11 @@
         <v>-73726199.03695025</v>
       </c>
       <c r="H568" t="n">
-        <v>1</v>
-      </c>
-      <c r="I568" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="J568" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K568" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I568" t="inlineStr"/>
+      <c r="J568" t="inlineStr"/>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="n">
         <v>1</v>
       </c>
@@ -20080,19 +19478,11 @@
         <v>-74798199.07695025</v>
       </c>
       <c r="H569" t="n">
-        <v>1</v>
-      </c>
-      <c r="I569" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J569" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K569" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I569" t="inlineStr"/>
+      <c r="J569" t="inlineStr"/>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="n">
         <v>1</v>
       </c>
@@ -20121,19 +19511,11 @@
         <v>-73616014.12595025</v>
       </c>
       <c r="H570" t="n">
-        <v>1</v>
-      </c>
-      <c r="I570" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="J570" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K570" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I570" t="inlineStr"/>
+      <c r="J570" t="inlineStr"/>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="n">
         <v>1</v>
       </c>
@@ -20162,19 +19544,11 @@
         <v>-72467732.22395025</v>
       </c>
       <c r="H571" t="n">
-        <v>1</v>
-      </c>
-      <c r="I571" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J571" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K571" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I571" t="inlineStr"/>
+      <c r="J571" t="inlineStr"/>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="n">
         <v>1</v>
       </c>
@@ -20203,19 +19577,11 @@
         <v>-73219177.53095025</v>
       </c>
       <c r="H572" t="n">
-        <v>1</v>
-      </c>
-      <c r="I572" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J572" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K572" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I572" t="inlineStr"/>
+      <c r="J572" t="inlineStr"/>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="n">
         <v>1</v>
       </c>
@@ -20244,19 +19610,11 @@
         <v>-71909856.14395025</v>
       </c>
       <c r="H573" t="n">
-        <v>1</v>
-      </c>
-      <c r="I573" t="n">
-        <v>0.2513</v>
-      </c>
-      <c r="J573" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K573" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I573" t="inlineStr"/>
+      <c r="J573" t="inlineStr"/>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="n">
         <v>1</v>
       </c>
@@ -20285,19 +19643,11 @@
         <v>-72617398.40195026</v>
       </c>
       <c r="H574" t="n">
-        <v>1</v>
-      </c>
-      <c r="I574" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="J574" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K574" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I574" t="inlineStr"/>
+      <c r="J574" t="inlineStr"/>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="n">
         <v>1</v>
       </c>
@@ -20326,19 +19676,11 @@
         <v>-71452164.97595026</v>
       </c>
       <c r="H575" t="n">
-        <v>1</v>
-      </c>
-      <c r="I575" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="J575" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K575" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I575" t="inlineStr"/>
+      <c r="J575" t="inlineStr"/>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="n">
         <v>1</v>
       </c>
@@ -20367,19 +19709,11 @@
         <v>-70058085.96495026</v>
       </c>
       <c r="H576" t="n">
-        <v>1</v>
-      </c>
-      <c r="I576" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="J576" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K576" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I576" t="inlineStr"/>
+      <c r="J576" t="inlineStr"/>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
       </c>
@@ -20408,19 +19742,11 @@
         <v>-69265786.08295026</v>
       </c>
       <c r="H577" t="n">
-        <v>1</v>
-      </c>
-      <c r="I577" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J577" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K577" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I577" t="inlineStr"/>
+      <c r="J577" t="inlineStr"/>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -20449,19 +19775,11 @@
         <v>-70405592.22195026</v>
       </c>
       <c r="H578" t="n">
-        <v>1</v>
-      </c>
-      <c r="I578" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J578" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K578" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I578" t="inlineStr"/>
+      <c r="J578" t="inlineStr"/>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20490,19 +19808,11 @@
         <v>-69189504.22095026</v>
       </c>
       <c r="H579" t="n">
-        <v>1</v>
-      </c>
-      <c r="I579" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="J579" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K579" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I579" t="inlineStr"/>
+      <c r="J579" t="inlineStr"/>
+      <c r="K579" t="inlineStr"/>
       <c r="L579" t="n">
         <v>1</v>
       </c>
@@ -20531,19 +19841,11 @@
         <v>-70439495.27095026</v>
       </c>
       <c r="H580" t="n">
-        <v>1</v>
-      </c>
-      <c r="I580" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="J580" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K580" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I580" t="inlineStr"/>
+      <c r="J580" t="inlineStr"/>
+      <c r="K580" t="inlineStr"/>
       <c r="L580" t="n">
         <v>1</v>
       </c>
@@ -20572,19 +19874,11 @@
         <v>-69553962.00295025</v>
       </c>
       <c r="H581" t="n">
-        <v>1</v>
-      </c>
-      <c r="I581" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="J581" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K581" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I581" t="inlineStr"/>
+      <c r="J581" t="inlineStr"/>
+      <c r="K581" t="inlineStr"/>
       <c r="L581" t="n">
         <v>1</v>
       </c>
@@ -20616,14 +19910,8 @@
         <v>0</v>
       </c>
       <c r="I582" t="inlineStr"/>
-      <c r="J582" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K582" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J582" t="inlineStr"/>
+      <c r="K582" t="inlineStr"/>
       <c r="L582" t="n">
         <v>1</v>
       </c>
@@ -20655,14 +19943,8 @@
         <v>0</v>
       </c>
       <c r="I583" t="inlineStr"/>
-      <c r="J583" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K583" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J583" t="inlineStr"/>
+      <c r="K583" t="inlineStr"/>
       <c r="L583" t="n">
         <v>1</v>
       </c>
@@ -20694,14 +19976,8 @@
         <v>0</v>
       </c>
       <c r="I584" t="inlineStr"/>
-      <c r="J584" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K584" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J584" t="inlineStr"/>
+      <c r="K584" t="inlineStr"/>
       <c r="L584" t="n">
         <v>1</v>
       </c>
@@ -20733,14 +20009,8 @@
         <v>0</v>
       </c>
       <c r="I585" t="inlineStr"/>
-      <c r="J585" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K585" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J585" t="inlineStr"/>
+      <c r="K585" t="inlineStr"/>
       <c r="L585" t="n">
         <v>1</v>
       </c>
@@ -20772,14 +20042,8 @@
         <v>0</v>
       </c>
       <c r="I586" t="inlineStr"/>
-      <c r="J586" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K586" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J586" t="inlineStr"/>
+      <c r="K586" t="inlineStr"/>
       <c r="L586" t="n">
         <v>1</v>
       </c>
@@ -20811,14 +20075,8 @@
         <v>0</v>
       </c>
       <c r="I587" t="inlineStr"/>
-      <c r="J587" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K587" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J587" t="inlineStr"/>
+      <c r="K587" t="inlineStr"/>
       <c r="L587" t="n">
         <v>1</v>
       </c>
@@ -20850,14 +20108,8 @@
         <v>0</v>
       </c>
       <c r="I588" t="inlineStr"/>
-      <c r="J588" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K588" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J588" t="inlineStr"/>
+      <c r="K588" t="inlineStr"/>
       <c r="L588" t="n">
         <v>1</v>
       </c>
@@ -20889,14 +20141,8 @@
         <v>0</v>
       </c>
       <c r="I589" t="inlineStr"/>
-      <c r="J589" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K589" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J589" t="inlineStr"/>
+      <c r="K589" t="inlineStr"/>
       <c r="L589" t="n">
         <v>1</v>
       </c>
@@ -20928,14 +20174,8 @@
         <v>0</v>
       </c>
       <c r="I590" t="inlineStr"/>
-      <c r="J590" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K590" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J590" t="inlineStr"/>
+      <c r="K590" t="inlineStr"/>
       <c r="L590" t="n">
         <v>1</v>
       </c>
@@ -20964,19 +20204,11 @@
         <v>-67384534.63695025</v>
       </c>
       <c r="H591" t="n">
-        <v>1</v>
-      </c>
-      <c r="I591" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="J591" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K591" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I591" t="inlineStr"/>
+      <c r="J591" t="inlineStr"/>
+      <c r="K591" t="inlineStr"/>
       <c r="L591" t="n">
         <v>1</v>
       </c>
@@ -21008,14 +20240,8 @@
         <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
-      <c r="J592" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K592" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J592" t="inlineStr"/>
+      <c r="K592" t="inlineStr"/>
       <c r="L592" t="n">
         <v>1</v>
       </c>
@@ -21047,14 +20273,8 @@
         <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
-      <c r="J593" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K593" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J593" t="inlineStr"/>
+      <c r="K593" t="inlineStr"/>
       <c r="L593" t="n">
         <v>1</v>
       </c>
@@ -21083,19 +20303,11 @@
         <v>-66159970.87495027</v>
       </c>
       <c r="H594" t="n">
-        <v>1</v>
-      </c>
-      <c r="I594" t="n">
-        <v>0.2514</v>
-      </c>
-      <c r="J594" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K594" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I594" t="inlineStr"/>
+      <c r="J594" t="inlineStr"/>
+      <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
       </c>
@@ -21127,14 +20339,8 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K595" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J595" t="inlineStr"/>
+      <c r="K595" t="inlineStr"/>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -21166,14 +20372,8 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K596" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J596" t="inlineStr"/>
+      <c r="K596" t="inlineStr"/>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -21205,14 +20405,8 @@
         <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
-      <c r="J597" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K597" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J597" t="inlineStr"/>
+      <c r="K597" t="inlineStr"/>
       <c r="L597" t="n">
         <v>1</v>
       </c>
@@ -21244,14 +20438,8 @@
         <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
-      <c r="J598" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K598" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J598" t="inlineStr"/>
+      <c r="K598" t="inlineStr"/>
       <c r="L598" t="n">
         <v>1</v>
       </c>
@@ -21283,14 +20471,8 @@
         <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
-      <c r="J599" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K599" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J599" t="inlineStr"/>
+      <c r="K599" t="inlineStr"/>
       <c r="L599" t="n">
         <v>1</v>
       </c>
@@ -21322,14 +20504,8 @@
         <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
-      <c r="J600" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K600" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J600" t="inlineStr"/>
+      <c r="K600" t="inlineStr"/>
       <c r="L600" t="n">
         <v>1</v>
       </c>
@@ -21361,14 +20537,8 @@
         <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
-      <c r="J601" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K601" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J601" t="inlineStr"/>
+      <c r="K601" t="inlineStr"/>
       <c r="L601" t="n">
         <v>1</v>
       </c>
@@ -21400,14 +20570,8 @@
         <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
-      <c r="J602" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K602" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J602" t="inlineStr"/>
+      <c r="K602" t="inlineStr"/>
       <c r="L602" t="n">
         <v>1</v>
       </c>
@@ -21439,14 +20603,8 @@
         <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
-      <c r="J603" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K603" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J603" t="inlineStr"/>
+      <c r="K603" t="inlineStr"/>
       <c r="L603" t="n">
         <v>1</v>
       </c>
@@ -21478,14 +20636,8 @@
         <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
-      <c r="J604" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K604" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J604" t="inlineStr"/>
+      <c r="K604" t="inlineStr"/>
       <c r="L604" t="n">
         <v>1</v>
       </c>
@@ -21517,14 +20669,8 @@
         <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
-      <c r="J605" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K605" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J605" t="inlineStr"/>
+      <c r="K605" t="inlineStr"/>
       <c r="L605" t="n">
         <v>1</v>
       </c>
@@ -21556,14 +20702,8 @@
         <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
-      <c r="J606" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K606" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J606" t="inlineStr"/>
+      <c r="K606" t="inlineStr"/>
       <c r="L606" t="n">
         <v>1</v>
       </c>
@@ -21595,14 +20735,8 @@
         <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
-      <c r="J607" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K607" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J607" t="inlineStr"/>
+      <c r="K607" t="inlineStr"/>
       <c r="L607" t="n">
         <v>1</v>
       </c>
@@ -21634,14 +20768,8 @@
         <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
-      <c r="J608" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K608" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J608" t="inlineStr"/>
+      <c r="K608" t="inlineStr"/>
       <c r="L608" t="n">
         <v>1</v>
       </c>
@@ -21673,14 +20801,8 @@
         <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
-      <c r="J609" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K609" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J609" t="inlineStr"/>
+      <c r="K609" t="inlineStr"/>
       <c r="L609" t="n">
         <v>1</v>
       </c>
@@ -21712,14 +20834,8 @@
         <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
-      <c r="J610" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K610" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J610" t="inlineStr"/>
+      <c r="K610" t="inlineStr"/>
       <c r="L610" t="n">
         <v>1</v>
       </c>
@@ -21751,14 +20867,8 @@
         <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
-      <c r="J611" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K611" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J611" t="inlineStr"/>
+      <c r="K611" t="inlineStr"/>
       <c r="L611" t="n">
         <v>1</v>
       </c>
@@ -21790,14 +20900,8 @@
         <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
-      <c r="J612" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K612" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J612" t="inlineStr"/>
+      <c r="K612" t="inlineStr"/>
       <c r="L612" t="n">
         <v>1</v>
       </c>
@@ -21829,14 +20933,8 @@
         <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
-      <c r="J613" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K613" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J613" t="inlineStr"/>
+      <c r="K613" t="inlineStr"/>
       <c r="L613" t="n">
         <v>1</v>
       </c>
@@ -21868,14 +20966,8 @@
         <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
-      <c r="J614" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K614" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J614" t="inlineStr"/>
+      <c r="K614" t="inlineStr"/>
       <c r="L614" t="n">
         <v>1</v>
       </c>
@@ -21907,14 +20999,8 @@
         <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
-      <c r="J615" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K615" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J615" t="inlineStr"/>
+      <c r="K615" t="inlineStr"/>
       <c r="L615" t="n">
         <v>1</v>
       </c>
@@ -21946,14 +21032,8 @@
         <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
-      <c r="J616" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K616" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J616" t="inlineStr"/>
+      <c r="K616" t="inlineStr"/>
       <c r="L616" t="n">
         <v>1</v>
       </c>
@@ -21985,14 +21065,8 @@
         <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
-      <c r="J617" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K617" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J617" t="inlineStr"/>
+      <c r="K617" t="inlineStr"/>
       <c r="L617" t="n">
         <v>1</v>
       </c>
@@ -22024,14 +21098,8 @@
         <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
-      <c r="J618" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K618" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J618" t="inlineStr"/>
+      <c r="K618" t="inlineStr"/>
       <c r="L618" t="n">
         <v>1</v>
       </c>
@@ -22063,14 +21131,8 @@
         <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
-      <c r="J619" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K619" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J619" t="inlineStr"/>
+      <c r="K619" t="inlineStr"/>
       <c r="L619" t="n">
         <v>1</v>
       </c>
@@ -22102,14 +21164,8 @@
         <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
-      <c r="J620" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K620" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J620" t="inlineStr"/>
+      <c r="K620" t="inlineStr"/>
       <c r="L620" t="n">
         <v>1</v>
       </c>
@@ -22141,14 +21197,8 @@
         <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
-      <c r="J621" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K621" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J621" t="inlineStr"/>
+      <c r="K621" t="inlineStr"/>
       <c r="L621" t="n">
         <v>1</v>
       </c>
@@ -22180,14 +21230,8 @@
         <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
-      <c r="J622" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K622" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J622" t="inlineStr"/>
+      <c r="K622" t="inlineStr"/>
       <c r="L622" t="n">
         <v>1</v>
       </c>
@@ -22219,14 +21263,8 @@
         <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
-      <c r="J623" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K623" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J623" t="inlineStr"/>
+      <c r="K623" t="inlineStr"/>
       <c r="L623" t="n">
         <v>1</v>
       </c>
@@ -22258,14 +21296,8 @@
         <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
-      <c r="J624" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K624" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J624" t="inlineStr"/>
+      <c r="K624" t="inlineStr"/>
       <c r="L624" t="n">
         <v>1</v>
       </c>
@@ -22297,14 +21329,8 @@
         <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
-      <c r="J625" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K625" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J625" t="inlineStr"/>
+      <c r="K625" t="inlineStr"/>
       <c r="L625" t="n">
         <v>1</v>
       </c>
@@ -22336,14 +21362,8 @@
         <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
-      <c r="J626" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K626" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J626" t="inlineStr"/>
+      <c r="K626" t="inlineStr"/>
       <c r="L626" t="n">
         <v>1</v>
       </c>
@@ -22375,14 +21395,8 @@
         <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
-      <c r="J627" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K627" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J627" t="inlineStr"/>
+      <c r="K627" t="inlineStr"/>
       <c r="L627" t="n">
         <v>1</v>
       </c>
@@ -22414,14 +21428,8 @@
         <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
-      <c r="J628" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K628" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J628" t="inlineStr"/>
+      <c r="K628" t="inlineStr"/>
       <c r="L628" t="n">
         <v>1</v>
       </c>
@@ -22453,14 +21461,8 @@
         <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
-      <c r="J629" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K629" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J629" t="inlineStr"/>
+      <c r="K629" t="inlineStr"/>
       <c r="L629" t="n">
         <v>1</v>
       </c>
@@ -22492,14 +21494,8 @@
         <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
-      <c r="J630" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K630" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J630" t="inlineStr"/>
+      <c r="K630" t="inlineStr"/>
       <c r="L630" t="n">
         <v>1</v>
       </c>
@@ -22531,14 +21527,8 @@
         <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
-      <c r="J631" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K631" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J631" t="inlineStr"/>
+      <c r="K631" t="inlineStr"/>
       <c r="L631" t="n">
         <v>1</v>
       </c>
@@ -22570,14 +21560,8 @@
         <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
-      <c r="J632" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K632" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J632" t="inlineStr"/>
+      <c r="K632" t="inlineStr"/>
       <c r="L632" t="n">
         <v>1</v>
       </c>
@@ -22609,14 +21593,8 @@
         <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
-      <c r="J633" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K633" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J633" t="inlineStr"/>
+      <c r="K633" t="inlineStr"/>
       <c r="L633" t="n">
         <v>1</v>
       </c>
@@ -22648,14 +21626,8 @@
         <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
-      <c r="J634" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K634" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J634" t="inlineStr"/>
+      <c r="K634" t="inlineStr"/>
       <c r="L634" t="n">
         <v>1</v>
       </c>
@@ -22687,14 +21659,8 @@
         <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
-      <c r="J635" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K635" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J635" t="inlineStr"/>
+      <c r="K635" t="inlineStr"/>
       <c r="L635" t="n">
         <v>1</v>
       </c>
@@ -22726,14 +21692,8 @@
         <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
-      <c r="J636" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K636" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J636" t="inlineStr"/>
+      <c r="K636" t="inlineStr"/>
       <c r="L636" t="n">
         <v>1</v>
       </c>
@@ -22765,14 +21725,8 @@
         <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
-      <c r="J637" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K637" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J637" t="inlineStr"/>
+      <c r="K637" t="inlineStr"/>
       <c r="L637" t="n">
         <v>1</v>
       </c>
@@ -22804,14 +21758,8 @@
         <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
-      <c r="J638" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K638" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J638" t="inlineStr"/>
+      <c r="K638" t="inlineStr"/>
       <c r="L638" t="n">
         <v>1</v>
       </c>
@@ -22843,14 +21791,8 @@
         <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
-      <c r="J639" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K639" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J639" t="inlineStr"/>
+      <c r="K639" t="inlineStr"/>
       <c r="L639" t="n">
         <v>1</v>
       </c>
@@ -22882,14 +21824,8 @@
         <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
-      <c r="J640" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K640" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J640" t="inlineStr"/>
+      <c r="K640" t="inlineStr"/>
       <c r="L640" t="n">
         <v>1</v>
       </c>
@@ -22921,14 +21857,8 @@
         <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
-      <c r="J641" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K641" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J641" t="inlineStr"/>
+      <c r="K641" t="inlineStr"/>
       <c r="L641" t="n">
         <v>1</v>
       </c>
@@ -22960,14 +21890,8 @@
         <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
-      <c r="J642" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K642" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J642" t="inlineStr"/>
+      <c r="K642" t="inlineStr"/>
       <c r="L642" t="n">
         <v>1</v>
       </c>
@@ -22999,14 +21923,8 @@
         <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
-      <c r="J643" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K643" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J643" t="inlineStr"/>
+      <c r="K643" t="inlineStr"/>
       <c r="L643" t="n">
         <v>1</v>
       </c>
@@ -23038,14 +21956,8 @@
         <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
-      <c r="J644" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K644" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J644" t="inlineStr"/>
+      <c r="K644" t="inlineStr"/>
       <c r="L644" t="n">
         <v>1</v>
       </c>
@@ -23077,14 +21989,8 @@
         <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
-      <c r="J645" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K645" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J645" t="inlineStr"/>
+      <c r="K645" t="inlineStr"/>
       <c r="L645" t="n">
         <v>1</v>
       </c>
@@ -23116,14 +22022,8 @@
         <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
-      <c r="J646" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K646" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J646" t="inlineStr"/>
+      <c r="K646" t="inlineStr"/>
       <c r="L646" t="n">
         <v>1</v>
       </c>
@@ -23155,14 +22055,8 @@
         <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
-      <c r="J647" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K647" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J647" t="inlineStr"/>
+      <c r="K647" t="inlineStr"/>
       <c r="L647" t="n">
         <v>1</v>
       </c>
@@ -23194,14 +22088,8 @@
         <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
-      <c r="J648" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K648" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J648" t="inlineStr"/>
+      <c r="K648" t="inlineStr"/>
       <c r="L648" t="n">
         <v>1</v>
       </c>
@@ -23233,14 +22121,8 @@
         <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
-      <c r="J649" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K649" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J649" t="inlineStr"/>
+      <c r="K649" t="inlineStr"/>
       <c r="L649" t="n">
         <v>1</v>
       </c>
@@ -23272,14 +22154,8 @@
         <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
-      <c r="J650" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K650" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J650" t="inlineStr"/>
+      <c r="K650" t="inlineStr"/>
       <c r="L650" t="n">
         <v>1</v>
       </c>
@@ -23311,14 +22187,8 @@
         <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
-      <c r="J651" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K651" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J651" t="inlineStr"/>
+      <c r="K651" t="inlineStr"/>
       <c r="L651" t="n">
         <v>1</v>
       </c>
@@ -23350,14 +22220,8 @@
         <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
-      <c r="J652" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K652" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J652" t="inlineStr"/>
+      <c r="K652" t="inlineStr"/>
       <c r="L652" t="n">
         <v>1</v>
       </c>
@@ -23389,14 +22253,8 @@
         <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
-      <c r="J653" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K653" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J653" t="inlineStr"/>
+      <c r="K653" t="inlineStr"/>
       <c r="L653" t="n">
         <v>1</v>
       </c>
@@ -23428,14 +22286,8 @@
         <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
-      <c r="J654" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K654" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J654" t="inlineStr"/>
+      <c r="K654" t="inlineStr"/>
       <c r="L654" t="n">
         <v>1</v>
       </c>
@@ -23467,14 +22319,8 @@
         <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
-      <c r="J655" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K655" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J655" t="inlineStr"/>
+      <c r="K655" t="inlineStr"/>
       <c r="L655" t="n">
         <v>1</v>
       </c>
@@ -23506,14 +22352,8 @@
         <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
-      <c r="J656" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K656" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J656" t="inlineStr"/>
+      <c r="K656" t="inlineStr"/>
       <c r="L656" t="n">
         <v>1</v>
       </c>
@@ -23545,14 +22385,8 @@
         <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
-      <c r="J657" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K657" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J657" t="inlineStr"/>
+      <c r="K657" t="inlineStr"/>
       <c r="L657" t="n">
         <v>1</v>
       </c>
@@ -23584,14 +22418,8 @@
         <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
-      <c r="J658" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K658" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J658" t="inlineStr"/>
+      <c r="K658" t="inlineStr"/>
       <c r="L658" t="n">
         <v>1</v>
       </c>
@@ -23623,14 +22451,8 @@
         <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
-      <c r="J659" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K659" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J659" t="inlineStr"/>
+      <c r="K659" t="inlineStr"/>
       <c r="L659" t="n">
         <v>1</v>
       </c>
@@ -23662,14 +22484,8 @@
         <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
-      <c r="J660" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K660" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J660" t="inlineStr"/>
+      <c r="K660" t="inlineStr"/>
       <c r="L660" t="n">
         <v>1</v>
       </c>
@@ -23698,17 +22514,15 @@
         <v>-68490218.09775028</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
-      </c>
-      <c r="I661" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I661" t="n">
+        <v>0.2518</v>
+      </c>
       <c r="J661" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K661" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0.2518</v>
+      </c>
+      <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
       </c>
@@ -23737,15 +22551,17 @@
         <v>-68490218.09775028</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
-      </c>
-      <c r="I662" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I662" t="n">
+        <v>0.2518</v>
+      </c>
       <c r="J662" t="n">
-        <v>0.2516</v>
+        <v>0.2518</v>
       </c>
       <c r="K662" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L662" t="n">
@@ -23780,11 +22596,11 @@
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="n">
-        <v>0.2516</v>
+        <v>0.2518</v>
       </c>
       <c r="K663" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
       <c r="L663" t="n">
@@ -23818,14 +22634,8 @@
         <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
-      <c r="J664" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K664" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J664" t="inlineStr"/>
+      <c r="K664" t="inlineStr"/>
       <c r="L664" t="n">
         <v>1</v>
       </c>
@@ -23857,14 +22667,8 @@
         <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
-      <c r="J665" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K665" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J665" t="inlineStr"/>
+      <c r="K665" t="inlineStr"/>
       <c r="L665" t="n">
         <v>1</v>
       </c>
@@ -23896,14 +22700,8 @@
         <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
-      <c r="J666" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K666" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J666" t="inlineStr"/>
+      <c r="K666" t="inlineStr"/>
       <c r="L666" t="n">
         <v>1</v>
       </c>
@@ -23935,14 +22733,8 @@
         <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
-      <c r="J667" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K667" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J667" t="inlineStr"/>
+      <c r="K667" t="inlineStr"/>
       <c r="L667" t="n">
         <v>1</v>
       </c>
@@ -23974,14 +22766,8 @@
         <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
-      <c r="J668" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K668" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J668" t="inlineStr"/>
+      <c r="K668" t="inlineStr"/>
       <c r="L668" t="n">
         <v>1</v>
       </c>
@@ -24013,14 +22799,8 @@
         <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
-      <c r="J669" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K669" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J669" t="inlineStr"/>
+      <c r="K669" t="inlineStr"/>
       <c r="L669" t="n">
         <v>1</v>
       </c>
@@ -24052,14 +22832,8 @@
         <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
-      <c r="J670" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K670" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J670" t="inlineStr"/>
+      <c r="K670" t="inlineStr"/>
       <c r="L670" t="n">
         <v>1</v>
       </c>
@@ -24091,14 +22865,8 @@
         <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
-      <c r="J671" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K671" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J671" t="inlineStr"/>
+      <c r="K671" t="inlineStr"/>
       <c r="L671" t="n">
         <v>1</v>
       </c>
@@ -24130,14 +22898,8 @@
         <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
-      <c r="J672" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K672" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J672" t="inlineStr"/>
+      <c r="K672" t="inlineStr"/>
       <c r="L672" t="n">
         <v>1</v>
       </c>
@@ -24169,14 +22931,8 @@
         <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
-      <c r="J673" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K673" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J673" t="inlineStr"/>
+      <c r="K673" t="inlineStr"/>
       <c r="L673" t="n">
         <v>1</v>
       </c>
@@ -24208,14 +22964,8 @@
         <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
-      <c r="J674" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K674" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J674" t="inlineStr"/>
+      <c r="K674" t="inlineStr"/>
       <c r="L674" t="n">
         <v>1</v>
       </c>
@@ -24247,14 +22997,8 @@
         <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
-      <c r="J675" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K675" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J675" t="inlineStr"/>
+      <c r="K675" t="inlineStr"/>
       <c r="L675" t="n">
         <v>1</v>
       </c>
@@ -24283,19 +23027,11 @@
         <v>-69541044.61175027</v>
       </c>
       <c r="H676" t="n">
-        <v>1</v>
-      </c>
-      <c r="I676" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J676" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K676" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I676" t="inlineStr"/>
+      <c r="J676" t="inlineStr"/>
+      <c r="K676" t="inlineStr"/>
       <c r="L676" t="n">
         <v>1</v>
       </c>
@@ -24327,14 +23063,8 @@
         <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
-      <c r="J677" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K677" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J677" t="inlineStr"/>
+      <c r="K677" t="inlineStr"/>
       <c r="L677" t="n">
         <v>1</v>
       </c>
@@ -24366,14 +23096,8 @@
         <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
-      <c r="J678" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K678" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J678" t="inlineStr"/>
+      <c r="K678" t="inlineStr"/>
       <c r="L678" t="n">
         <v>1</v>
       </c>
@@ -24405,14 +23129,8 @@
         <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
-      <c r="J679" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K679" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J679" t="inlineStr"/>
+      <c r="K679" t="inlineStr"/>
       <c r="L679" t="n">
         <v>1</v>
       </c>
@@ -24444,14 +23162,8 @@
         <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
-      <c r="J680" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K680" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J680" t="inlineStr"/>
+      <c r="K680" t="inlineStr"/>
       <c r="L680" t="n">
         <v>1</v>
       </c>
@@ -24483,14 +23195,8 @@
         <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
-      <c r="J681" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K681" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J681" t="inlineStr"/>
+      <c r="K681" t="inlineStr"/>
       <c r="L681" t="n">
         <v>1</v>
       </c>
@@ -24522,14 +23228,8 @@
         <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
-      <c r="J682" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K682" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J682" t="inlineStr"/>
+      <c r="K682" t="inlineStr"/>
       <c r="L682" t="n">
         <v>1</v>
       </c>
@@ -24561,14 +23261,8 @@
         <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
-      <c r="J683" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K683" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J683" t="inlineStr"/>
+      <c r="K683" t="inlineStr"/>
       <c r="L683" t="n">
         <v>1</v>
       </c>
@@ -24600,14 +23294,8 @@
         <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
-      <c r="J684" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K684" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J684" t="inlineStr"/>
+      <c r="K684" t="inlineStr"/>
       <c r="L684" t="n">
         <v>1</v>
       </c>
@@ -24639,14 +23327,8 @@
         <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
-      <c r="J685" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K685" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J685" t="inlineStr"/>
+      <c r="K685" t="inlineStr"/>
       <c r="L685" t="n">
         <v>1</v>
       </c>
@@ -24678,14 +23360,8 @@
         <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
-      <c r="J686" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K686" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J686" t="inlineStr"/>
+      <c r="K686" t="inlineStr"/>
       <c r="L686" t="n">
         <v>1</v>
       </c>
@@ -24714,19 +23390,11 @@
         <v>-80576245.50315025</v>
       </c>
       <c r="H687" t="n">
-        <v>1</v>
-      </c>
-      <c r="I687" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J687" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K687" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I687" t="inlineStr"/>
+      <c r="J687" t="inlineStr"/>
+      <c r="K687" t="inlineStr"/>
       <c r="L687" t="n">
         <v>1</v>
       </c>
@@ -24755,19 +23423,11 @@
         <v>-81326166.57315025</v>
       </c>
       <c r="H688" t="n">
-        <v>1</v>
-      </c>
-      <c r="I688" t="n">
-        <v>0.2531</v>
-      </c>
-      <c r="J688" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K688" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I688" t="inlineStr"/>
+      <c r="J688" t="inlineStr"/>
+      <c r="K688" t="inlineStr"/>
       <c r="L688" t="n">
         <v>1</v>
       </c>
@@ -24796,19 +23456,11 @@
         <v>-81316659.06985025</v>
       </c>
       <c r="H689" t="n">
-        <v>1</v>
-      </c>
-      <c r="I689" t="n">
-        <v>0.2519</v>
-      </c>
-      <c r="J689" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K689" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I689" t="inlineStr"/>
+      <c r="J689" t="inlineStr"/>
+      <c r="K689" t="inlineStr"/>
       <c r="L689" t="n">
         <v>1</v>
       </c>
@@ -24837,19 +23489,11 @@
         <v>-82558174.35785025</v>
       </c>
       <c r="H690" t="n">
-        <v>1</v>
-      </c>
-      <c r="I690" t="n">
-        <v>0.2532</v>
-      </c>
-      <c r="J690" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K690" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I690" t="inlineStr"/>
+      <c r="J690" t="inlineStr"/>
+      <c r="K690" t="inlineStr"/>
       <c r="L690" t="n">
         <v>1</v>
       </c>
@@ -24878,19 +23522,11 @@
         <v>-83494562.19985025</v>
       </c>
       <c r="H691" t="n">
-        <v>1</v>
-      </c>
-      <c r="I691" t="n">
-        <v>0.2531</v>
-      </c>
-      <c r="J691" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K691" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I691" t="inlineStr"/>
+      <c r="J691" t="inlineStr"/>
+      <c r="K691" t="inlineStr"/>
       <c r="L691" t="n">
         <v>1</v>
       </c>
@@ -24919,19 +23555,11 @@
         <v>-82439513.68485025</v>
       </c>
       <c r="H692" t="n">
-        <v>1</v>
-      </c>
-      <c r="I692" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J692" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K692" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I692" t="inlineStr"/>
+      <c r="J692" t="inlineStr"/>
+      <c r="K692" t="inlineStr"/>
       <c r="L692" t="n">
         <v>1</v>
       </c>
@@ -24960,19 +23588,11 @@
         <v>-83460659.15085025</v>
       </c>
       <c r="H693" t="n">
-        <v>1</v>
-      </c>
-      <c r="I693" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="J693" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K693" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I693" t="inlineStr"/>
+      <c r="J693" t="inlineStr"/>
+      <c r="K693" t="inlineStr"/>
       <c r="L693" t="n">
         <v>1</v>
       </c>
@@ -25004,14 +23624,8 @@
         <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
-      <c r="J694" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K694" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J694" t="inlineStr"/>
+      <c r="K694" t="inlineStr"/>
       <c r="L694" t="n">
         <v>1</v>
       </c>
@@ -25043,14 +23657,8 @@
         <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
-      <c r="J695" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K695" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J695" t="inlineStr"/>
+      <c r="K695" t="inlineStr"/>
       <c r="L695" t="n">
         <v>1</v>
       </c>
@@ -25079,19 +23687,11 @@
         <v>-84125822.59585024</v>
       </c>
       <c r="H696" t="n">
-        <v>1</v>
-      </c>
-      <c r="I696" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J696" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K696" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I696" t="inlineStr"/>
+      <c r="J696" t="inlineStr"/>
+      <c r="K696" t="inlineStr"/>
       <c r="L696" t="n">
         <v>1</v>
       </c>
@@ -25120,19 +23720,11 @@
         <v>-84125822.59585024</v>
       </c>
       <c r="H697" t="n">
-        <v>1</v>
-      </c>
-      <c r="I697" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J697" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K697" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I697" t="inlineStr"/>
+      <c r="J697" t="inlineStr"/>
+      <c r="K697" t="inlineStr"/>
       <c r="L697" t="n">
         <v>1</v>
       </c>
@@ -25161,19 +23753,11 @@
         <v>-84125822.59585024</v>
       </c>
       <c r="H698" t="n">
-        <v>1</v>
-      </c>
-      <c r="I698" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J698" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K698" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I698" t="inlineStr"/>
+      <c r="J698" t="inlineStr"/>
+      <c r="K698" t="inlineStr"/>
       <c r="L698" t="n">
         <v>1</v>
       </c>
@@ -25202,19 +23786,11 @@
         <v>-84125822.59585024</v>
       </c>
       <c r="H699" t="n">
-        <v>1</v>
-      </c>
-      <c r="I699" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J699" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K699" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I699" t="inlineStr"/>
+      <c r="J699" t="inlineStr"/>
+      <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
       </c>
@@ -25243,19 +23819,11 @@
         <v>-84125822.59585024</v>
       </c>
       <c r="H700" t="n">
-        <v>1</v>
-      </c>
-      <c r="I700" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J700" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K700" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I700" t="inlineStr"/>
+      <c r="J700" t="inlineStr"/>
+      <c r="K700" t="inlineStr"/>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -25284,19 +23852,11 @@
         <v>-82915988.35785024</v>
       </c>
       <c r="H701" t="n">
-        <v>1</v>
-      </c>
-      <c r="I701" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J701" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K701" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I701" t="inlineStr"/>
+      <c r="J701" t="inlineStr"/>
+      <c r="K701" t="inlineStr"/>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -25325,19 +23885,11 @@
         <v>-83945609.58585024</v>
       </c>
       <c r="H702" t="n">
-        <v>1</v>
-      </c>
-      <c r="I702" t="n">
-        <v>0.2531</v>
-      </c>
-      <c r="J702" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K702" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I702" t="inlineStr"/>
+      <c r="J702" t="inlineStr"/>
+      <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
       </c>
@@ -25366,19 +23918,11 @@
         <v>-84661627.60585023</v>
       </c>
       <c r="H703" t="n">
-        <v>1</v>
-      </c>
-      <c r="I703" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="J703" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K703" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I703" t="inlineStr"/>
+      <c r="J703" t="inlineStr"/>
+      <c r="K703" t="inlineStr"/>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -25407,19 +23951,11 @@
         <v>-83326878.93185024</v>
       </c>
       <c r="H704" t="n">
-        <v>1</v>
-      </c>
-      <c r="I704" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J704" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K704" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I704" t="inlineStr"/>
+      <c r="J704" t="inlineStr"/>
+      <c r="K704" t="inlineStr"/>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -25451,14 +23987,8 @@
         <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
-      <c r="J705" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K705" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J705" t="inlineStr"/>
+      <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
       </c>
@@ -25490,14 +24020,8 @@
         <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
-      <c r="J706" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K706" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -25526,19 +24050,11 @@
         <v>-82568482.10085022</v>
       </c>
       <c r="H707" t="n">
-        <v>1</v>
-      </c>
-      <c r="I707" t="n">
-        <v>0.253</v>
-      </c>
-      <c r="J707" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K707" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I707" t="inlineStr"/>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -25567,19 +24083,11 @@
         <v>-83530297.22985022</v>
       </c>
       <c r="H708" t="n">
-        <v>1</v>
-      </c>
-      <c r="I708" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J708" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K708" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
       </c>
@@ -25608,19 +24116,11 @@
         <v>-83544248.22985022</v>
       </c>
       <c r="H709" t="n">
-        <v>1</v>
-      </c>
-      <c r="I709" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J709" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K709" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I709" t="inlineStr"/>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -25649,19 +24149,11 @@
         <v>-82217975.31785022</v>
       </c>
       <c r="H710" t="n">
-        <v>1</v>
-      </c>
-      <c r="I710" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J710" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K710" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I710" t="inlineStr"/>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -25690,19 +24182,11 @@
         <v>-80804689.78285022</v>
       </c>
       <c r="H711" t="n">
-        <v>1</v>
-      </c>
-      <c r="I711" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J711" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K711" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I711" t="inlineStr"/>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -25731,19 +24215,11 @@
         <v>-81622416.95185022</v>
       </c>
       <c r="H712" t="n">
-        <v>1</v>
-      </c>
-      <c r="I712" t="n">
-        <v>0.2532</v>
-      </c>
-      <c r="J712" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K712" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I712" t="inlineStr"/>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -25772,19 +24248,11 @@
         <v>-80787738.25785021</v>
       </c>
       <c r="H713" t="n">
-        <v>1</v>
-      </c>
-      <c r="I713" t="n">
-        <v>0.2526</v>
-      </c>
-      <c r="J713" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K713" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I713" t="inlineStr"/>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -25813,19 +24281,11 @@
         <v>-81986874.73385021</v>
       </c>
       <c r="H714" t="n">
-        <v>1</v>
-      </c>
-      <c r="I714" t="n">
-        <v>0.2528</v>
-      </c>
-      <c r="J714" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K714" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I714" t="inlineStr"/>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -25854,19 +24314,11 @@
         <v>-81093494.78565021</v>
       </c>
       <c r="H715" t="n">
-        <v>1</v>
-      </c>
-      <c r="I715" t="n">
-        <v>0.2522</v>
-      </c>
-      <c r="J715" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K715" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -25895,19 +24347,11 @@
         <v>-81093494.78565021</v>
       </c>
       <c r="H716" t="n">
-        <v>1</v>
-      </c>
-      <c r="I716" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J716" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K716" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I716" t="inlineStr"/>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -25936,19 +24380,11 @@
         <v>-82614710.2316502</v>
       </c>
       <c r="H717" t="n">
-        <v>1</v>
-      </c>
-      <c r="I717" t="n">
-        <v>0.2523</v>
-      </c>
-      <c r="J717" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K717" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -25977,19 +24413,11 @@
         <v>-81729176.9636502</v>
       </c>
       <c r="H718" t="n">
-        <v>1</v>
-      </c>
-      <c r="I718" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="J718" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K718" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I718" t="inlineStr"/>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -26018,19 +24446,11 @@
         <v>-81729176.9636502</v>
       </c>
       <c r="H719" t="n">
-        <v>1</v>
-      </c>
-      <c r="I719" t="n">
-        <v>0.2524</v>
-      </c>
-      <c r="J719" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K719" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I719" t="inlineStr"/>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -26062,14 +24482,8 @@
         <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
-      <c r="J720" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K720" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -26101,14 +24515,8 @@
         <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
-      <c r="J721" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K721" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -26140,14 +24548,8 @@
         <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
-      <c r="J722" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K722" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -26179,14 +24581,8 @@
         <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
-      <c r="J723" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K723" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -26215,19 +24611,11 @@
         <v>-84349377.1126502</v>
       </c>
       <c r="H724" t="n">
-        <v>1</v>
-      </c>
-      <c r="I724" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="J724" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K724" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -26256,19 +24644,11 @@
         <v>-83268901.3096502</v>
       </c>
       <c r="H725" t="n">
-        <v>1</v>
-      </c>
-      <c r="I725" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J725" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K725" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -26300,20 +24680,14 @@
         <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
-      <c r="J726" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K726" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
       <c r="L726" t="n">
         <v>1</v>
       </c>
       <c r="M726" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-14 BackTest AMO.xlsx
+++ b/BackTest/2020-01-14 BackTest AMO.xlsx
@@ -550,7 +550,7 @@
         <v>-6402296.125199997</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>-8059123.770199996</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>-7165114.740199996</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-7122735.928199995</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-3039921.521299996</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>-4349242.908299997</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>-290088.3312999967</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>-2645982.471299997</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>-3895973.521299996</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>-3963779.620299996</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-5332431.344299996</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>-3946828.096299997</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>-3946828.096299997</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>-2442564.174299996</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-3539991.501299996</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>-4467903.581299996</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>-2980591.184299996</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>-2980591.184299996</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>-3798318.353299996</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>-2828027.461299996</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>-1837739.236799996</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>-3045351.474799996</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>-1998778.721799996</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>-3011448.425799996</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>-3863078.643799996</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>-2502902.682799996</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>-2502902.682799996</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>-1168154.008799996</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-2274057.098799996</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>-761317.4147999962</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>158118.9022000039</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>1382682.665200004</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>683616.1702000039</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>1772567.735200004</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>827704.1302000037</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>2298065.002200004</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>836179.8922000036</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>1696285.873200004</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>717519.2192000035</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-303626.2467999965</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-303626.2467999965</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-1731608.306799997</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-3032453.930799996</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-2265581.335799997</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-3015502.405799997</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-2291008.622799996</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-812171.9887999962</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-812171.9887999962</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-1875696.266799996</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-2812084.108799996</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-2079114.563799996</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-3074832.742799996</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-3943414.485799996</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-3108735.791799996</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-3917987.197799996</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-3917987.197799996</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-3917987.197799996</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-2506956.662799996</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-3824753.811799997</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-3066356.979799997</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-3782374.999799997</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-2752753.771799996</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-1299344.424799996</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-515520.3057999965</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-515520.3057999965</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-1858744.741799996</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-591802.1667999965</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-1392577.810799996</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-549423.3547999964</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-1951978.127799996</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-3447766.286799996</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-2536805.731799996</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-1278338.918799996</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-2477475.394799996</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-3608805.771799996</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3520,7 +3520,7 @@
         <v>-4723184.623799996</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
@@ -3553,7 +3553,7 @@
         <v>-3600330.009799996</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-4680805.812799997</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-6032506.011799997</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-4748611.911799997</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-6193545.496799997</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-7070603.001799997</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-5896893.812799997</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-4519766.326799996</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-3329105.612799997</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-2291008.621799997</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-3346057.136799997</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-2019784.224799997</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-2845987.155799997</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-1689229.491799996</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-1689229.491799996</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-2964647.828799997</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-4197687.353799997</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-3422338.996799997</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-4426532.937799997</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-3524048.144799997</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-4596048.184799997</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-3413863.233799997</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-4562145.135799997</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-5303590.442799998</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-3994269.055799997</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-4701811.313799998</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-3536577.887799998</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-2142498.876799998</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-2934798.758799998</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-1794992.619799998</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-3011080.620799998</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-1761089.570799998</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-1761089.570799998</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-2714428.937799998</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-4083080.661799998</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-2697477.413799997</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-4218692.859799998</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-5722956.781799998</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-4625529.454799999</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-3697617.374799998</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-5184929.771799998</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-6477299.633799998</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-5659572.464799998</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-6629863.356799998</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-5642620.940799998</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-6850233.178799998</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-5803660.425799998</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-6816330.129799997</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-5964699.911799997</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-7324875.872799997</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-6634285.139799997</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-5299536.465799997</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-6405439.555799996</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-4892699.871799996</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-5812136.188799996</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-4587572.425799996</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-3888505.930799996</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-4977457.495799996</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-4032593.890799996</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-5502954.762799996</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-4041069.652799996</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-3180963.671799995</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-4159730.325799996</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-3138584.859799996</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-1608893.650799996</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-3036875.710799996</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-1736030.086799996</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-2502902.681799996</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-1752981.611799996</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-2477475.394799996</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-998638.7607999961</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-2240154.048799996</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-1176629.770799996</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-2113017.612799997</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-1380048.067799997</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-1380048.067799997</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-509522.1240999966</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-1344200.818099997</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-2153452.224099996</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-716994.4010999964</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-2136500.699099996</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-3626492.776699996</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-2308695.627699996</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-3067092.459699996</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-3783110.479699996</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-4812731.707699996</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-3359322.360699996</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-2575498.241699996</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-3537313.370699996</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-2194088.934699996</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-927146.3596999964</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-924089.7073999965</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-1724865.351399996</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-2568019.807399997</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-3970574.580399997</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-2474786.421399997</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-2472824.350899997</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-3383784.905899997</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-2125318.092899997</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-926181.6168999968</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-2057511.993899997</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-943133.1418999969</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-2065987.755899997</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-3146463.558899997</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-3146463.558899997</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-1862569.458899997</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>-3307503.043899997</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>5496587.123800004</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>4619529.618800004</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>4619529.618800004</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>4621600.251700004</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>3244472.765700004</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7249,7 +7249,7 @@
         <v>3246479.937400003</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -7282,7 +7282,7 @@
         <v>2055819.223400004</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -7315,7 +7315,7 @@
         <v>3095868.861600004</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>2040820.346600004</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>2042840.112100004</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>716567.2001000037</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>718858.8207000038</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-107344.1102999962</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-105414.3645999962</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-1262172.028599996</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-2156181.058599996</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-4059953.967399997</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-2877769.016399997</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-4026050.918399997</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-4767496.225399997</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>190089.162600003</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-714653.476699997</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>4624341.219300003</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>3331971.357300003</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>3331971.357300003</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>3315019.833300003</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>3478155.593000003</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>4490825.297000003</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>3639195.079000003</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>4999371.040000003</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>4308780.307000003</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>2971017.668600003</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>1862100.614200003</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>3374840.298200003</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>3673505.236100004</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>7082466.926500004</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>7102531.783600003</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>6157668.178600004</v>
       </c>
       <c r="H267" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>4687307.306600004</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>3025722.196600004</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>2907061.523600004</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>1885916.057600004</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>3415607.266600004</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -9427,7 +9427,7 @@
         <v>4843589.326600004</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="inlineStr"/>
@@ -9460,7 +9460,7 @@
         <v>6144434.950600004</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -9493,7 +9493,7 @@
         <v>5377562.355600004</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -9526,7 +9526,7 @@
         <v>6127483.425600004</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="inlineStr"/>
@@ -9559,7 +9559,7 @@
         <v>5402989.642600005</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="inlineStr"/>
@@ -9625,7 +9625,7 @@
         <v>6881826.276600005</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
@@ -9658,7 +9658,7 @@
         <v>5818301.998600005</v>
       </c>
       <c r="H281" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
@@ -9691,7 +9691,7 @@
         <v>6754689.840600005</v>
       </c>
       <c r="H282" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
@@ -9757,7 +9757,7 @@
         <v>-6745081.183099995</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-10981460.8941</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-37751755.76499999</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-38603385.98299999</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-39963561.94399999</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-39963561.94399999</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-41298310.61799999</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-39959507.96299999</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-38980741.30899999</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-40001886.77499999</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-41429868.83499999</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-42730714.45899999</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -14278,14 +14278,10 @@
         <v>-46821335.03840002</v>
       </c>
       <c r="H421" t="n">
-        <v>1</v>
-      </c>
-      <c r="I421" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="J421" t="n">
-        <v>0.2516</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I421" t="inlineStr"/>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
@@ -14315,19 +14311,11 @@
         <v>-47628162.51610002</v>
       </c>
       <c r="H422" t="n">
-        <v>1</v>
-      </c>
-      <c r="I422" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="J422" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I422" t="inlineStr"/>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -14356,19 +14344,11 @@
         <v>-53375875.79680002</v>
       </c>
       <c r="H423" t="n">
-        <v>1</v>
-      </c>
-      <c r="I423" t="n">
-        <v>0.2512</v>
-      </c>
-      <c r="J423" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I423" t="inlineStr"/>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -14397,19 +14377,11 @@
         <v>-52374220.03034982</v>
       </c>
       <c r="H424" t="n">
-        <v>1</v>
-      </c>
-      <c r="I424" t="n">
-        <v>0.2507</v>
-      </c>
-      <c r="J424" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I424" t="inlineStr"/>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -14438,19 +14410,11 @@
         <v>-51958470.72750002</v>
       </c>
       <c r="H425" t="n">
-        <v>1</v>
-      </c>
-      <c r="I425" t="n">
-        <v>0.2509</v>
-      </c>
-      <c r="J425" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -14479,19 +14443,11 @@
         <v>-50615246.29150002</v>
       </c>
       <c r="H426" t="n">
-        <v>1</v>
-      </c>
-      <c r="I426" t="n">
-        <v>0.251</v>
-      </c>
-      <c r="J426" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -14520,19 +14476,11 @@
         <v>-49348303.71650002</v>
       </c>
       <c r="H427" t="n">
-        <v>1</v>
-      </c>
-      <c r="I427" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="J427" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I427" t="inlineStr"/>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -14564,14 +14512,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -14603,14 +14545,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -14642,14 +14578,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -14681,14 +14611,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -14720,14 +14644,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -14759,14 +14677,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -14798,14 +14710,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -14837,14 +14743,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -14876,14 +14776,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -14915,14 +14809,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -14954,14 +14842,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -14993,14 +14875,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -15032,14 +14908,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -15071,14 +14941,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -15110,14 +14974,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -15149,14 +15007,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -15188,14 +15040,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -15227,14 +15073,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -15266,14 +15106,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -15305,14 +15139,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -15344,14 +15172,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -15383,14 +15205,8 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
         <v>1</v>
       </c>
@@ -15422,14 +15238,8 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K450" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J450" t="inlineStr"/>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="n">
         <v>1</v>
       </c>
@@ -15461,14 +15271,8 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K451" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J451" t="inlineStr"/>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="n">
         <v>1</v>
       </c>
@@ -15500,14 +15304,8 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K452" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J452" t="inlineStr"/>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="n">
         <v>1</v>
       </c>
@@ -15539,14 +15337,8 @@
         <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K453" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J453" t="inlineStr"/>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="n">
         <v>1</v>
       </c>
@@ -15578,14 +15370,8 @@
         <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15617,14 +15403,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15656,14 +15436,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15695,14 +15469,8 @@
         <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15734,14 +15502,8 @@
         <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15773,14 +15535,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15812,14 +15568,8 @@
         <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15851,14 +15601,8 @@
         <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15890,14 +15634,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -15929,14 +15667,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -15968,14 +15700,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16007,14 +15733,8 @@
         <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
-      <c r="J465" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16046,14 +15766,8 @@
         <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
-      <c r="J466" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16085,14 +15799,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16124,14 +15832,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16163,14 +15865,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16202,14 +15898,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16238,19 +15928,13 @@
         <v>-66227205.83265018</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
-        <v>1.007321144674086</v>
+        <v>1</v>
       </c>
       <c r="M471" t="inlineStr"/>
     </row>
@@ -16277,7 +15961,7 @@
         <v>-67019505.71465018</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -16376,7 +16060,7 @@
         <v>-65845796.52665018</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -16409,7 +16093,7 @@
         <v>-64960263.25865018</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -16937,7 +16621,7 @@
         <v>-62244856.16075019</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -18686,10 +18370,14 @@
         <v>-74319502.40595023</v>
       </c>
       <c r="H545" t="n">
-        <v>0</v>
-      </c>
-      <c r="I545" t="inlineStr"/>
-      <c r="J545" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I545" t="n">
+        <v>0.2501</v>
+      </c>
+      <c r="J545" t="n">
+        <v>0.2501</v>
+      </c>
       <c r="K545" t="inlineStr"/>
       <c r="L545" t="n">
         <v>1</v>
@@ -18719,11 +18407,19 @@
         <v>-73120365.92995024</v>
       </c>
       <c r="H546" t="n">
-        <v>0</v>
-      </c>
-      <c r="I546" t="inlineStr"/>
-      <c r="J546" t="inlineStr"/>
-      <c r="K546" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I546" t="n">
+        <v>0.2503</v>
+      </c>
+      <c r="J546" t="n">
+        <v>0.2501</v>
+      </c>
+      <c r="K546" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L546" t="n">
         <v>1</v>
       </c>
@@ -18752,11 +18448,19 @@
         <v>-71989035.55295023</v>
       </c>
       <c r="H547" t="n">
-        <v>0</v>
-      </c>
-      <c r="I547" t="inlineStr"/>
-      <c r="J547" t="inlineStr"/>
-      <c r="K547" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I547" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="J547" t="n">
+        <v>0.2501</v>
+      </c>
+      <c r="K547" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L547" t="n">
         <v>1</v>
       </c>
@@ -18785,10 +18489,14 @@
         <v>-73103414.40495023</v>
       </c>
       <c r="H548" t="n">
-        <v>0</v>
-      </c>
-      <c r="I548" t="inlineStr"/>
-      <c r="J548" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I548" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="J548" t="n">
+        <v>0.2529</v>
+      </c>
       <c r="K548" t="inlineStr"/>
       <c r="L548" t="n">
         <v>1</v>
@@ -18818,11 +18526,19 @@
         <v>-71980559.79095024</v>
       </c>
       <c r="H549" t="n">
-        <v>0</v>
-      </c>
-      <c r="I549" t="inlineStr"/>
-      <c r="J549" t="inlineStr"/>
-      <c r="K549" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I549" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="J549" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K549" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L549" t="n">
         <v>1</v>
       </c>
@@ -18851,11 +18567,19 @@
         <v>-73061035.59395024</v>
       </c>
       <c r="H550" t="n">
-        <v>0</v>
-      </c>
-      <c r="I550" t="inlineStr"/>
-      <c r="J550" t="inlineStr"/>
-      <c r="K550" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I550" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="J550" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="K550" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L550" t="n">
         <v>1</v>
       </c>
@@ -18884,10 +18608,14 @@
         <v>-73061035.59395024</v>
       </c>
       <c r="H551" t="n">
-        <v>0</v>
-      </c>
-      <c r="I551" t="inlineStr"/>
-      <c r="J551" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I551" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="J551" t="n">
+        <v>0.2521</v>
+      </c>
       <c r="K551" t="inlineStr"/>
       <c r="L551" t="n">
         <v>1</v>
@@ -18917,11 +18645,19 @@
         <v>-71777141.49395025</v>
       </c>
       <c r="H552" t="n">
-        <v>0</v>
-      </c>
-      <c r="I552" t="inlineStr"/>
-      <c r="J552" t="inlineStr"/>
-      <c r="K552" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I552" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="J552" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K552" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L552" t="n">
         <v>1</v>
       </c>
@@ -18950,11 +18686,19 @@
         <v>-73222075.07895024</v>
       </c>
       <c r="H553" t="n">
-        <v>0</v>
-      </c>
-      <c r="I553" t="inlineStr"/>
-      <c r="J553" t="inlineStr"/>
-      <c r="K553" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I553" t="n">
+        <v>0.2529</v>
+      </c>
+      <c r="J553" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K553" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L553" t="n">
         <v>1</v>
       </c>
@@ -19082,10 +18826,14 @@
         <v>-73111890.16695024</v>
       </c>
       <c r="H557" t="n">
-        <v>0</v>
-      </c>
-      <c r="I557" t="inlineStr"/>
-      <c r="J557" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I557" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="J557" t="n">
+        <v>0.2517</v>
+      </c>
       <c r="K557" t="inlineStr"/>
       <c r="L557" t="n">
         <v>1</v>
@@ -19118,8 +18866,14 @@
         <v>0</v>
       </c>
       <c r="I558" t="inlineStr"/>
-      <c r="J558" t="inlineStr"/>
-      <c r="K558" t="inlineStr"/>
+      <c r="J558" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="K558" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L558" t="n">
         <v>1</v>
       </c>
@@ -19151,8 +18905,14 @@
         <v>0</v>
       </c>
       <c r="I559" t="inlineStr"/>
-      <c r="J559" t="inlineStr"/>
-      <c r="K559" t="inlineStr"/>
+      <c r="J559" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="K559" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L559" t="n">
         <v>1</v>
       </c>
@@ -19709,10 +19469,14 @@
         <v>-70058085.96495026</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
-      </c>
-      <c r="I576" t="inlineStr"/>
-      <c r="J576" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I576" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="J576" t="n">
+        <v>0.2519</v>
+      </c>
       <c r="K576" t="inlineStr"/>
       <c r="L576" t="n">
         <v>1</v>
@@ -19745,8 +19509,14 @@
         <v>0</v>
       </c>
       <c r="I577" t="inlineStr"/>
-      <c r="J577" t="inlineStr"/>
-      <c r="K577" t="inlineStr"/>
+      <c r="J577" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="K577" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L577" t="n">
         <v>1</v>
       </c>
@@ -19778,8 +19548,14 @@
         <v>0</v>
       </c>
       <c r="I578" t="inlineStr"/>
-      <c r="J578" t="inlineStr"/>
-      <c r="K578" t="inlineStr"/>
+      <c r="J578" t="n">
+        <v>0.2519</v>
+      </c>
+      <c r="K578" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L578" t="n">
         <v>1</v>
       </c>
@@ -20303,10 +20079,14 @@
         <v>-66159970.87495027</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
-      </c>
-      <c r="I594" t="inlineStr"/>
-      <c r="J594" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I594" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="J594" t="n">
+        <v>0.2514</v>
+      </c>
       <c r="K594" t="inlineStr"/>
       <c r="L594" t="n">
         <v>1</v>
@@ -20339,8 +20119,14 @@
         <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
-      <c r="J595" t="inlineStr"/>
-      <c r="K595" t="inlineStr"/>
+      <c r="J595" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="K595" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L595" t="n">
         <v>1</v>
       </c>
@@ -20372,8 +20158,14 @@
         <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
-      <c r="J596" t="inlineStr"/>
-      <c r="K596" t="inlineStr"/>
+      <c r="J596" t="n">
+        <v>0.2514</v>
+      </c>
+      <c r="K596" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L596" t="n">
         <v>1</v>
       </c>
@@ -22514,14 +22306,10 @@
         <v>-68490218.09775028</v>
       </c>
       <c r="H661" t="n">
-        <v>1</v>
-      </c>
-      <c r="I661" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="J661" t="n">
-        <v>0.2518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I661" t="inlineStr"/>
+      <c r="J661" t="inlineStr"/>
       <c r="K661" t="inlineStr"/>
       <c r="L661" t="n">
         <v>1</v>
@@ -22551,19 +22339,11 @@
         <v>-68490218.09775028</v>
       </c>
       <c r="H662" t="n">
-        <v>1</v>
-      </c>
-      <c r="I662" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="J662" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="K662" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I662" t="inlineStr"/>
+      <c r="J662" t="inlineStr"/>
+      <c r="K662" t="inlineStr"/>
       <c r="L662" t="n">
         <v>1</v>
       </c>
@@ -22595,14 +22375,8 @@
         <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
-      <c r="J663" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="K663" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J663" t="inlineStr"/>
+      <c r="K663" t="inlineStr"/>
       <c r="L663" t="n">
         <v>1</v>
       </c>
@@ -23786,10 +23560,14 @@
         <v>-84125822.59585024</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
-      </c>
-      <c r="I699" t="inlineStr"/>
-      <c r="J699" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I699" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="J699" t="n">
+        <v>0.2521</v>
+      </c>
       <c r="K699" t="inlineStr"/>
       <c r="L699" t="n">
         <v>1</v>
@@ -23819,11 +23597,19 @@
         <v>-84125822.59585024</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
-      </c>
-      <c r="I700" t="inlineStr"/>
-      <c r="J700" t="inlineStr"/>
-      <c r="K700" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I700" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="J700" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K700" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L700" t="n">
         <v>1</v>
       </c>
@@ -23852,11 +23638,19 @@
         <v>-82915988.35785024</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
-      </c>
-      <c r="I701" t="inlineStr"/>
-      <c r="J701" t="inlineStr"/>
-      <c r="K701" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I701" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="J701" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="K701" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L701" t="n">
         <v>1</v>
       </c>
@@ -23885,10 +23679,14 @@
         <v>-83945609.58585024</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
-      </c>
-      <c r="I702" t="inlineStr"/>
-      <c r="J702" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I702" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="J702" t="n">
+        <v>0.2531</v>
+      </c>
       <c r="K702" t="inlineStr"/>
       <c r="L702" t="n">
         <v>1</v>
@@ -23918,11 +23716,19 @@
         <v>-84661627.60585023</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
-      </c>
-      <c r="I703" t="inlineStr"/>
-      <c r="J703" t="inlineStr"/>
-      <c r="K703" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I703" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="J703" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="K703" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L703" t="n">
         <v>1</v>
       </c>
@@ -23951,11 +23757,19 @@
         <v>-83326878.93185024</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
-      </c>
-      <c r="I704" t="inlineStr"/>
-      <c r="J704" t="inlineStr"/>
-      <c r="K704" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I704" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="J704" t="n">
+        <v>0.2531</v>
+      </c>
+      <c r="K704" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L704" t="n">
         <v>1</v>
       </c>
@@ -23984,10 +23798,14 @@
         <v>-82627812.43685023</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
-      </c>
-      <c r="I705" t="inlineStr"/>
-      <c r="J705" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I705" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="J705" t="n">
+        <v>0.2527</v>
+      </c>
       <c r="K705" t="inlineStr"/>
       <c r="L705" t="n">
         <v>1</v>
@@ -24017,11 +23835,19 @@
         <v>-81310015.28785023</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
-      </c>
-      <c r="I706" t="inlineStr"/>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I706" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="J706" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="K706" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L706" t="n">
         <v>1</v>
       </c>
@@ -24050,11 +23876,19 @@
         <v>-82568482.10085022</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
-      </c>
-      <c r="I707" t="inlineStr"/>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I707" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="J707" t="n">
+        <v>0.2527</v>
+      </c>
+      <c r="K707" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L707" t="n">
         <v>1</v>
       </c>
@@ -24083,10 +23917,14 @@
         <v>-83530297.22985022</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
-      </c>
-      <c r="I708" t="inlineStr"/>
-      <c r="J708" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I708" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="J708" t="n">
+        <v>0.2522</v>
+      </c>
       <c r="K708" t="inlineStr"/>
       <c r="L708" t="n">
         <v>1</v>
@@ -24116,11 +23954,19 @@
         <v>-83544248.22985022</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
-      </c>
-      <c r="I709" t="inlineStr"/>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I709" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="J709" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K709" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L709" t="n">
         <v>1</v>
       </c>
@@ -24149,11 +23995,19 @@
         <v>-82217975.31785022</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="J710" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -24182,11 +24036,19 @@
         <v>-80804689.78285022</v>
       </c>
       <c r="H711" t="n">
-        <v>0</v>
-      </c>
-      <c r="I711" t="inlineStr"/>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I711" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="J711" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -24215,11 +24077,19 @@
         <v>-81622416.95185022</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
-      </c>
-      <c r="I712" t="inlineStr"/>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I712" t="n">
+        <v>0.2532</v>
+      </c>
+      <c r="J712" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -24248,11 +24118,19 @@
         <v>-80787738.25785021</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
-      </c>
-      <c r="I713" t="inlineStr"/>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I713" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="J713" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -24281,11 +24159,19 @@
         <v>-81986874.73385021</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
-      </c>
-      <c r="I714" t="inlineStr"/>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I714" t="n">
+        <v>0.2528</v>
+      </c>
+      <c r="J714" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -24314,11 +24200,19 @@
         <v>-81093494.78565021</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I715" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="J715" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24347,11 +24241,19 @@
         <v>-81093494.78565021</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I716" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="J716" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24380,11 +24282,19 @@
         <v>-82614710.2316502</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I717" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="J717" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24413,11 +24323,19 @@
         <v>-81729176.9636502</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="J718" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24446,11 +24364,19 @@
         <v>-81729176.9636502</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I719" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="J719" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24479,11 +24405,19 @@
         <v>-80884047.7840502</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>0.2524</v>
+      </c>
+      <c r="J720" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24512,11 +24446,19 @@
         <v>-81752629.5270502</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>0.2532</v>
+      </c>
+      <c r="J721" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24545,11 +24487,19 @@
         <v>-82699172.7052502</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>0.2523</v>
+      </c>
+      <c r="J722" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24578,11 +24528,19 @@
         <v>-81779736.3882502</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="J723" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24611,11 +24569,19 @@
         <v>-84349377.1126502</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="J724" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24644,11 +24610,19 @@
         <v>-83268901.3096502</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="J725" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24677,11 +24651,19 @@
         <v>-85366712.5186502</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>0.2526</v>
+      </c>
+      <c r="J726" t="n">
+        <v>0.2522</v>
+      </c>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
